--- a/Analysis/Paper/Tables.xlsx
+++ b/Analysis/Paper/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2C66AD-3D5F-4CDD-B657-84EE9A3CBC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A09DA-6580-45B0-8D49-43C5F0116002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="13" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="4" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="mod1" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="134">
   <si>
     <t>Overweight</t>
   </si>
@@ -419,7 +418,40 @@
     <t>Log Liklihood</t>
   </si>
   <si>
-    <t>RE Coef StdDev</t>
+    <t>Black X Overweight</t>
+  </si>
+  <si>
+    <t>Black X Obese</t>
+  </si>
+  <si>
+    <t>Hispanic X Overweight</t>
+  </si>
+  <si>
+    <t>Hispanic X Obese</t>
+  </si>
+  <si>
+    <t>Female Only</t>
+  </si>
+  <si>
+    <t>Male Only</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Variable Coef. Std. Dev.</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(4)</t>
   </si>
 </sst>
 </file>
@@ -428,7 +460,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -454,7 +486,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -462,12 +494,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -475,7 +567,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -874,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF5D928-7B16-48E5-9106-CF382A052326}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5971996-C493-4E34-8CB5-DA105C8BC0EA}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4014,183 +4152,1307 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BF295-AB2E-413A-A9E0-35598F6A239C}">
-  <dimension ref="A3:A62"/>
+  <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:P29"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="10" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod2'!B2,4)," ",'mod2'!G2)</f>
+        <v>-0.0481 *</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod2.fr'!B2,4)," ",'mod2.fr'!G2)</f>
+        <v>-0.0457 *</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod3.fr'!B2,4)," ",'mod3.fr'!G2)</f>
+        <v>-0.0406 ^</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod4.fr'!B2,4)," ",'mod4.fr'!G2)</f>
+        <v>-0.0409 ^</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="11" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod2'!D2,4),")")</f>
+        <v>(0.0191)</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod2.fr'!D2,4),")")</f>
+        <v>(0.0228)</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod3.fr'!D2,4),")")</f>
+        <v>(0.0226)</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod4.fr'!D2,4),")")</f>
+        <v>(0.0226)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2'!$G$2,Table3!A5,0))</f>
+        <v>-0.1049 ***</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A5,0))</f>
+        <v>-0.1049 ***</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A5,0))</f>
+        <v>-0.1131 ***</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A5,0))</f>
+        <v>-0.106 ***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A5,0),4),")")</f>
+        <v>(0.0203)</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A5,0),4),")")</f>
+        <v>(0.0257)</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A5,0),4),")")</f>
+        <v>(0.0254)</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A5,0),4),")")</f>
+        <v>(0.0253)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C7" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2'!$G$2,Table3!A7,0))</f>
+        <v>0.0541 **</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A7,0))</f>
+        <v>0.0541 ***</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A7,0))</f>
+        <v>0.0638 **</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A7,0))</f>
+        <v>0.0672 **</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A7,0),4),")")</f>
+        <v>(0.0167)</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A7,0),4),")")</f>
+        <v>(0.0219)</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A7,0),4),")")</f>
+        <v>(0.0216)</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A7,0),4),")")</f>
+        <v>(0.0221)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C9" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2'!$G$2,Table3!A9,0))</f>
+        <v>-0.0672 ***</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A9,0))</f>
+        <v>-0.0672 ***</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A9,0))</f>
+        <v>-0.0409 ***</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A9,0))</f>
+        <v>-0.0444 ***</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A9,0),4),")")</f>
+        <v>(0.0037)</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A9,0),4),")")</f>
+        <v>(0.0044)</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A9,0),4),")")</f>
+        <v>(0.0049)</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A9,0),4),")")</f>
+        <v>(0.0049)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A9+1</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C11" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2'!$G$2,Table3!A11,0))</f>
+        <v>-0.1577 ***</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A11,0))</f>
+        <v>-0.1577 ***</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A11,0))</f>
+        <v>-0.181 ***</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A11,0))</f>
+        <v>-0.1785 ***</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A11,0),4),")")</f>
+        <v>(0.0211)</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A11,0),4),")")</f>
+        <v>(0.0282)</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A11,0),4),")")</f>
+        <v>(0.0279)</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A11,0),4),")")</f>
+        <v>(0.0278)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A11+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C13" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2'!$G$2,Table3!A13,0))</f>
+        <v xml:space="preserve">-0.0128 </v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A13,0))</f>
+        <v xml:space="preserve">-0.0128 </v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A13,0))</f>
+        <v xml:space="preserve">-0.0233 </v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A13,0))</f>
+        <v xml:space="preserve">-0.0205 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A13,0),4),")")</f>
+        <v>(0.0231)</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A13,0),4),")")</f>
+        <v>(0.0304)</v>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A13,0),4),")")</f>
+        <v>(0.0299)</v>
+      </c>
+      <c r="F14" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A13,0),4),")")</f>
+        <v>(0.0298)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C15" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2'!$G$2,Table3!A15,0))</f>
+        <v>0.0563 *</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A15,0))</f>
+        <v>0.0563 ^</v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A15,0))</f>
+        <v xml:space="preserve">0.0499 </v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A15,0))</f>
+        <v>0.0517 ^</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A15,0),4),")")</f>
+        <v>(0.0259)</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A15,0),4),")")</f>
+        <v>(0.0309)</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A15,0),4),")")</f>
+        <v>(0.0306)</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A15,0),4),")")</f>
+        <v>(0.0306)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A15+1</f>
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C17" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2'!$G$2,Table3!A17,0))</f>
+        <v xml:space="preserve">-0.0548 </v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A17,0))</f>
+        <v xml:space="preserve">-0.0548 </v>
+      </c>
+      <c r="E17" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A17,0))</f>
+        <v xml:space="preserve">-0.0514 </v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A17,0))</f>
+        <v xml:space="preserve">-0.0389 </v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A17,0),4),")")</f>
+        <v>(0.0456)</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A17,0),4),")")</f>
+        <v>(0.0547)</v>
+      </c>
+      <c r="E18" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A17,0),4),")")</f>
+        <v>(0.0544)</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A17,0),4),")")</f>
+        <v>(0.0544)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A17+1</f>
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C19" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2'!$G$2,Table3!A19,0))</f>
+        <v xml:space="preserve">-0.0025 </v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A19,0))</f>
+        <v xml:space="preserve">-0.0025 </v>
+      </c>
+      <c r="E19" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A19,0))</f>
+        <v xml:space="preserve">-0.0044 </v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A19,0))</f>
+        <v xml:space="preserve">-0.0058 </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A19,0),4),")")</f>
+        <v>(0.0112)</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A19,0),4),")")</f>
+        <v>(0.0132)</v>
+      </c>
+      <c r="E20" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A19,0),4),")")</f>
+        <v>(0.0132)</v>
+      </c>
+      <c r="F20" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A19,0),4),")")</f>
+        <v>(0.0131)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A19+1</f>
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C21" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2'!$G$2,Table3!A21,0))</f>
+        <v>0.0094 **</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A21,0))</f>
+        <v>0.0094 **</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A21,0))</f>
+        <v>0.0116 **</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A21,0))</f>
+        <v>0.0133 ***</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A21,0),4),")")</f>
+        <v>(0.0033)</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A21,0),4),")")</f>
+        <v>(0.0038)</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A21,0),4),")")</f>
+        <v>(0.0038)</v>
+      </c>
+      <c r="F22" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A21,0),4),")")</f>
+        <v>(0.0038)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A21+1</f>
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C23" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2'!$G$2,Table3!A23,0))</f>
+        <v>0.0669 **</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A23,0))</f>
+        <v>0.0669 **</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A23,0))</f>
+        <v>0.0869 **</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A23,0))</f>
+        <v>0.0984 ***</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A23,0),4),")")</f>
+        <v>(0.0228)</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A23,0),4),")")</f>
+        <v>(0.0285)</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A23,0),4),")")</f>
+        <v>(0.0283)</v>
+      </c>
+      <c r="F24" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A23,0),4),")")</f>
+        <v>(0.0282)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A23+1</f>
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C25" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2'!$G$2,Table3!A25,0))</f>
+        <v>0.1701 ***</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A25,0))</f>
+        <v>0.1701 ***</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A25,0))</f>
+        <v>0.2035 ***</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A25,0))</f>
+        <v>0.2135 ***</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A25,0),4),")")</f>
+        <v>(0.0248)</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A25,0),4),")")</f>
+        <v>(0.0314)</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A25,0),4),")")</f>
+        <v>(0.0311)</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A25,0),4),")")</f>
+        <v>(0.031)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A25+1</f>
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C27" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2'!$G$2,Table3!A27,0))</f>
+        <v>0.1136 **</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A27,0))</f>
+        <v>0.1136 *</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A27,0))</f>
+        <v>0.1151 *</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A27,0))</f>
+        <v>0.1448 **</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A27,0),4),")")</f>
+        <v>(0.0383)</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A27,0),4),")")</f>
+        <v>(0.0465)</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A27,0),4),")")</f>
+        <v>(0.0461)</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A27,0),4),")")</f>
+        <v>(0.0466)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A27+1</f>
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C29" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2'!$G$2,Table3!A29,0))</f>
+        <v xml:space="preserve">0.0137 </v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A29,0))</f>
+        <v xml:space="preserve">0.0137 </v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A29,0))</f>
+        <v xml:space="preserve">0.0054 </v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A29,0))</f>
+        <v xml:space="preserve">0.0011 </v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A29,0),4),")")</f>
+        <v>(0.0613)</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A29,0),4),")")</f>
+        <v>(0.0726)</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A29,0),4),")")</f>
+        <v>(0.0721)</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A29,0),4),")")</f>
+        <v>(0.0729)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A29+1</f>
+        <v>14</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C31" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2'!$G$2,Table3!A31,0))</f>
+        <v>0.0036 ***</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A31,0))</f>
+        <v>0.0036 ***</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A31,0))</f>
+        <v>0.0045 ***</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A31,0))</f>
+        <v>0.0044 ***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A31,0),4),")")</f>
+        <v>(0.0004)</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A31,0),4),")")</f>
+        <v>(0.0005)</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A31,0),4),")")</f>
+        <v>(0.0005)</v>
+      </c>
+      <c r="F32" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A31,0),4),")")</f>
+        <v>(0.0005)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A31+1</f>
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C33" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2'!$G$2,Table3!A33,0))</f>
+        <v>-0.0012 ***</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A33,0))</f>
+        <v>-0.0012 ***</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A33,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A33,0))</f>
+        <v>-0.0013 ***</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A33,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A33,0))</f>
+        <v xml:space="preserve">0.0002 </v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A33,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A33,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A33,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+      <c r="F34" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A33,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A33+1</f>
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C35" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2'!$G$2,Table3!A35,0))</f>
+        <v>0.0004 ***</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A35,0))</f>
+        <v xml:space="preserve">0.0004 </v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A35,0))</f>
+        <v>0.0003 **</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A35,0))</f>
+        <v>0.0004 ***</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A35,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A35,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A35,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+      <c r="F36" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A35,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A35+1</f>
+        <v>17</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C37" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2'!$G$2,Table3!A37,0))</f>
+        <v xml:space="preserve">-0.0256 </v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A37,0))</f>
+        <v xml:space="preserve">-0.0256 </v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A37,0))</f>
+        <v xml:space="preserve">-0.0086 </v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A37,0))</f>
+        <v xml:space="preserve">-0.0089 </v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A37,0),4),")")</f>
+        <v>(0.0181)</v>
+      </c>
+      <c r="D38" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A37,0),4),")")</f>
+        <v>(0.0209)</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A37,0),4),")")</f>
+        <v>(0.0207)</v>
+      </c>
+      <c r="F38" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A37,0),4),")")</f>
+        <v>(0.0207)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>A37+1</f>
+        <v>18</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C39" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2'!$G$2,Table3!A39,0))</f>
+        <v xml:space="preserve">-0.0334 </v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A39,0))</f>
+        <v xml:space="preserve">-0.0334 </v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A39,0))</f>
+        <v xml:space="preserve">0.0026 </v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A39,0))</f>
+        <v xml:space="preserve">0.0035 </v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A39,0),4),")")</f>
+        <v>(0.0268)</v>
+      </c>
+      <c r="D40" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A39,0),4),")")</f>
+        <v>(0.0315)</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A39,0),4),")")</f>
+        <v>(0.0313)</v>
+      </c>
+      <c r="F40" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A39,0),4),")")</f>
+        <v>(0.0312)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>A39+1</f>
+        <v>19</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C41" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2'!$G$2,Table3!A41,0))</f>
+        <v>-0.0604 *</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A41,0))</f>
+        <v>-0.0604 ^</v>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A41,0))</f>
+        <v>-0.099 **</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A41,0))</f>
+        <v>-0.1044 **</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A41,0),4),")")</f>
+        <v>(0.0251)</v>
+      </c>
+      <c r="D42" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A41,0),4),")")</f>
+        <v>(0.0326)</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A41,0),4),")")</f>
+        <v>(0.0324)</v>
+      </c>
+      <c r="F42" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A41,0),4),")")</f>
+        <v>(0.0323)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A41+1</f>
+        <v>20</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C43" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2'!$G$2,Table3!A43,0))</f>
+        <v>-0.1224 ***</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A43,0))</f>
+        <v>-0.1224 ***</v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A43,0))</f>
+        <v>-0.2209 ***</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A43,0))</f>
+        <v>-0.2241 ***</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A43,0),4),")")</f>
+        <v>(0.0274)</v>
+      </c>
+      <c r="D44" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A43,0),4),")")</f>
+        <v>(0.0356)</v>
+      </c>
+      <c r="E44" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A43,0),4),")")</f>
+        <v>(0.0356)</v>
+      </c>
+      <c r="F44" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A43,0),4),")")</f>
+        <v>(0.0355)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A43+1</f>
+        <v>21</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C45" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2'!$G$2,Table3!A45,0))</f>
+        <v xml:space="preserve">-0.0254 </v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A45,0))</f>
+        <v xml:space="preserve">-0.0254 </v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A45,0))</f>
+        <v>-0.0888 **</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A45,0))</f>
+        <v>-0.0931 **</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A45,0),4),")")</f>
+        <v>(0.0227)</v>
+      </c>
+      <c r="D46" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A45,0),4),")")</f>
+        <v>(0.0295)</v>
+      </c>
+      <c r="E46" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A45,0),4),")")</f>
+        <v>(0.0295)</v>
+      </c>
+      <c r="F46" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A45,0),4),")")</f>
+        <v>(0.0294)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>A45+1</f>
+        <v>22</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A47,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A47,0))</f>
+        <v>-0.074 ***</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A47,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A47,0))</f>
+        <v>-0.0762 ***</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A47,0),4),")")</f>
+        <v>(0.0066)</v>
+      </c>
+      <c r="F48" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A47,0),4),")")</f>
+        <v>(0.0066)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>A47+1</f>
+        <v>23</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A49,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A49,0))</f>
+        <v>-0.0591 ***</v>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A49,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A49,0))</f>
+        <v>-0.0564 ***</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A49,0),4),")")</f>
+        <v>(0.0047)</v>
+      </c>
+      <c r="F50" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A49,0),4),")")</f>
+        <v>(0.0047)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>A49+1</f>
+        <v>24</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A51,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A51,0))</f>
+        <v>-0.4774 ***</v>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A51,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A51,0))</f>
+        <v>-0.2479 *</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A51,0),4),")")</f>
+        <v>(0.101)</v>
+      </c>
+      <c r="F52" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A51,0),4),")")</f>
+        <v>(0.1036)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>A51+1</f>
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A53,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A53,0))</f>
+        <v>-0.4172 ***</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A53,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A53,0))</f>
+        <v>-0.204 ***</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A53,0),4),")")</f>
+        <v>(0.0545)</v>
+      </c>
+      <c r="F54" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A53,0),4),")")</f>
+        <v>(0.0582)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A53+1</f>
+        <v>26</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A55,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A55,0))</f>
+        <v xml:space="preserve">-0.043 </v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A55,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A55,0))</f>
+        <v xml:space="preserve">0.2133 </v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A55,0),4),")")</f>
+        <v>(0.2734)</v>
+      </c>
+      <c r="F56" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A55,0),4),")")</f>
+        <v>(0.2753)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A55+1</f>
+        <v>27</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C57" s="10"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A57,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A57,0))</f>
+        <v>-0.3432 ***</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A57,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A57,0))</f>
+        <v>-0.123 *</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A57,0),4),")")</f>
+        <v>(0.0533)</v>
+      </c>
+      <c r="F58" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A57,0),4),")")</f>
+        <v>(0.0565)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A57+1</f>
+        <v>28</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A59,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A59,0))</f>
+        <v xml:space="preserve">0.0197 </v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A59,0),4),")")</f>
+        <v>(0.0663)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>A59+1</f>
+        <v>29</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C61" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
         <v>119</v>
       </c>
+      <c r="C62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14">
+        <f>ROUND('mod2.fr'!D26,4)</f>
+        <v>0.40110000000000001</v>
+      </c>
+      <c r="E63" s="13">
+        <f>ROUND('mod3.fr'!D33,4)</f>
+        <v>0.38519999999999999</v>
+      </c>
+      <c r="F63" s="14">
+        <f>ROUND('mod4.fr'!D71,4)</f>
+        <v>0.37759999999999999</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4199,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F8F94-28F1-435A-A302-0413B10E8D9E}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="B3:G3"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5858,7 +7120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16EA22-A059-4F15-98ED-F5187BF21EBC}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -7601,7 +8863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63C1DA5-55A6-4264-BFFF-6D38CC49E3CC}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -9260,7 +10522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6754B77A-E7B8-4222-98B0-49B82EC36D00}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -11001,14 +12263,1477 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D30258-0279-42C9-AFDD-19DB817A80C5}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>_xlfn.CONCAT(ROUND('mof4.fr_female'!B2,4)," ",'mof4.fr_female'!G2)</f>
+        <v xml:space="preserve">-0.0442 </v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod.fr.int_female'!B2,4), " ", 'mod.fr.int_female'!G2)</f>
+        <v>-0.1241 *</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>_xlfn.CONCAT(ROUND('mof4.fr_male'!B2,4)," ",'mof4.fr_male'!G2)</f>
+        <v xml:space="preserve">-0.0307 </v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>_xlfn.CONCAT(ROUND('mod4.fr.int_male'!B2,4)," ",'mod4.fr.int_male'!G2)</f>
+        <v xml:space="preserve">-0.0466 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mof4.fr_female'!D2,4),")")</f>
+        <v>(0.0342)</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod.fr.int_female'!D2,4),")")</f>
+        <v>(0.0526)</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mof4.fr_male'!D2,4),")")</f>
+        <v>(0.0305)</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>_xlfn.CONCAT("(",ROUND('mod4.fr.int_male'!D2,4),")")</f>
+        <v>(0.0432)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A5,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A5,0))</f>
+        <v>-0.1295 ***</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A5,0))</f>
+        <v>-0.1964 ***</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A5,0))</f>
+        <v>-0.0703 ^</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A5,0))</f>
+        <v xml:space="preserve">-0.0436 </v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A5,0),4),")")</f>
+        <v>(0.0352)</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A5,0),4),")")</f>
+        <v>(0.054)</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A5,0),4),")")</f>
+        <v>(0.0372)</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A5,0),4),")")</f>
+        <v>(0.0547)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A7,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A7,0))</f>
+        <v>-0.033 ***</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A7,0))</f>
+        <v>-0.0337 ***</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A7,0))</f>
+        <v>-0.0567 ***</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A7,0))</f>
+        <v>-0.057 ***</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A7,0),4),")")</f>
+        <v>(0.0071)</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A7,0),4),")")</f>
+        <v>(0.0071)</v>
+      </c>
+      <c r="E8" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A7,0),4),")")</f>
+        <v>(0.007)</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A7,0),4),")")</f>
+        <v>(0.007)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A9,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A9,0))</f>
+        <v>-0.2108 ***</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A9,0))</f>
+        <v>-0.2858 ***</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A9,0))</f>
+        <v>-0.1494 ***</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A9,0))</f>
+        <v>-0.1574 **</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A9,0),4),")")</f>
+        <v>(0.0401)</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A9,0),4),")")</f>
+        <v>(0.0525)</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A9,0),4),")")</f>
+        <v>(0.0392)</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A9,0),4),")")</f>
+        <v>(0.05)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A9+1</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A11,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A11,0))</f>
+        <v>0.1647 *</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A11,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A11,0))</f>
+        <v xml:space="preserve">0.0561 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A11,0),4),")")</f>
+        <v>(0.0763)</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A11,0),4),")")</f>
+        <v>(0.0679)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A11+1</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A13,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A13,0))</f>
+        <v>0.1294 ^</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A13,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A13,0))</f>
+        <v xml:space="preserve">-0.0429 </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A13,0),4),")")</f>
+        <v>(0.076)</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A13,0),4),")")</f>
+        <v>(0.082)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A15,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A15,0))</f>
+        <v xml:space="preserve">-0.0217 </v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A15,0))</f>
+        <v xml:space="preserve">-0.0678 </v>
+      </c>
+      <c r="E15" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A15,0))</f>
+        <v xml:space="preserve">-0.0245 </v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A15,0))</f>
+        <v xml:space="preserve">-0.0071 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A15,0),4),")")</f>
+        <v>(0.0434)</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A15,0),4),")")</f>
+        <v>(0.0572)</v>
+      </c>
+      <c r="E16" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A15,0),4),")")</f>
+        <v>(0.0415)</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A15,0),4),")")</f>
+        <v>(0.0599)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>A15+1</f>
+        <v>7</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A17,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A17,0))</f>
+        <v xml:space="preserve">0.0988 </v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A17,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A17,0))</f>
+        <v xml:space="preserve">-0.0119 </v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A17,0),4),")")</f>
+        <v>(0.092)</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A17,0),4),")")</f>
+        <v>(0.0818)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A19,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A19,0))</f>
+        <v xml:space="preserve">0.1018 </v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A19,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A19,0))</f>
+        <v xml:space="preserve">-0.0548 </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A19,0),4),")")</f>
+        <v>(0.0919)</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A19,0),4),")")</f>
+        <v>(0.0934)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A21,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A21,0))</f>
+        <v xml:space="preserve">0.0198 </v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A21,0))</f>
+        <v xml:space="preserve">0.0205 </v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A21,0))</f>
+        <v xml:space="preserve">0.072 </v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A21,0))</f>
+        <v xml:space="preserve">0.0727 </v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A21,0),4),")")</f>
+        <v>(0.0405)</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A21,0),4),")")</f>
+        <v>(0.0404)</v>
+      </c>
+      <c r="E22" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A21,0),4),")")</f>
+        <v>(0.0483)</v>
+      </c>
+      <c r="F22" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A21,0),4),")")</f>
+        <v>(0.0483)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>A21+1</f>
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A23,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A23,0))</f>
+        <v>-0.1194 ^</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A23,0))</f>
+        <v xml:space="preserve">-0.1102 </v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A23,0))</f>
+        <v xml:space="preserve">0.0388 </v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A23,0))</f>
+        <v xml:space="preserve">0.0369 </v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A23,0),4),")")</f>
+        <v>(0.0698)</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A23,0),4),")")</f>
+        <v>(0.0697)</v>
+      </c>
+      <c r="E24" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A23,0),4),")")</f>
+        <v>(0.0894)</v>
+      </c>
+      <c r="F24" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A23,0),4),")")</f>
+        <v>(0.0894)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>A23+1</f>
+        <v>11</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A25,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A25,0))</f>
+        <v xml:space="preserve">-0.013 </v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A25,0))</f>
+        <v xml:space="preserve">-0.0112 </v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A25,0))</f>
+        <v xml:space="preserve">0.0073 </v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A25,0))</f>
+        <v xml:space="preserve">0.0073 </v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A25,0),4),")")</f>
+        <v>(0.0171)</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A25,0),4),")")</f>
+        <v>(0.0171)</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A25,0),4),")")</f>
+        <v>(0.0214)</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A25,0),4),")")</f>
+        <v>(0.0214)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A25+1</f>
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A27,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A27,0))</f>
+        <v>0.0262 ***</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A27,0))</f>
+        <v>0.026 ***</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A27,0))</f>
+        <v xml:space="preserve">0.003 </v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A27,0))</f>
+        <v xml:space="preserve">0.003 </v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A27,0),4),")")</f>
+        <v>(0.0059)</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A27,0),4),")")</f>
+        <v>(0.0059)</v>
+      </c>
+      <c r="E28" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A27,0),4),")")</f>
+        <v>(0.0049)</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A27,0),4),")")</f>
+        <v>(0.0049)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A27+1</f>
+        <v>13</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A29,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A29,0))</f>
+        <v>0.0845 *</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A29,0))</f>
+        <v>0.08 ^</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A29,0))</f>
+        <v>0.1206 **</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A29,0))</f>
+        <v>0.1199 **</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A29,0),4),")")</f>
+        <v>(0.0424)</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A29,0),4),")")</f>
+        <v>(0.0424)</v>
+      </c>
+      <c r="E30" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A29,0),4),")")</f>
+        <v>(0.0381)</v>
+      </c>
+      <c r="F30" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A29,0),4),")")</f>
+        <v>(0.0381)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A29+1</f>
+        <v>14</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A31,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A31,0))</f>
+        <v>0.1902 ***</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A31,0))</f>
+        <v>0.1862 ***</v>
+      </c>
+      <c r="E31" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A31,0))</f>
+        <v>0.2445 ***</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A31,0))</f>
+        <v>0.2433 ***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A31,0),4),")")</f>
+        <v>(0.0447)</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A31,0),4),")")</f>
+        <v>(0.0447)</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A31,0),4),")")</f>
+        <v>(0.0438)</v>
+      </c>
+      <c r="F32" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A31,0),4),")")</f>
+        <v>(0.0438)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A31+1</f>
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A33,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A33,0))</f>
+        <v>0.1178 ^</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A33,0))</f>
+        <v>0.1133 ^</v>
+      </c>
+      <c r="E33" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A33,0))</f>
+        <v>0.1801 **</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A33,0))</f>
+        <v>0.1809 **</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A33,0),4),")")</f>
+        <v>(0.0654)</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A33,0),4),")")</f>
+        <v>(0.0654)</v>
+      </c>
+      <c r="E34" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A33,0),4),")")</f>
+        <v>(0.068)</v>
+      </c>
+      <c r="F34" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A33,0),4),")")</f>
+        <v>(0.068)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A33+1</f>
+        <v>16</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A35,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A35,0))</f>
+        <v xml:space="preserve">-0.088 </v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A35,0))</f>
+        <v xml:space="preserve">-0.0999 </v>
+      </c>
+      <c r="E35" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A35,0))</f>
+        <v xml:space="preserve">0.1285 </v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A35,0))</f>
+        <v xml:space="preserve">0.1303 </v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A35,0),4),")")</f>
+        <v>(0.0989)</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A35,0),4),")")</f>
+        <v>(0.099)</v>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A35,0),4),")")</f>
+        <v>(0.1101)</v>
+      </c>
+      <c r="F36" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A35,0),4),")")</f>
+        <v>(0.1102)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A35+1</f>
+        <v>17</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A37,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A37,0))</f>
+        <v>0.0049 ***</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A37,0))</f>
+        <v>0.0049 ***</v>
+      </c>
+      <c r="E37" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A37,0))</f>
+        <v>0.0039 ***</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A37,0))</f>
+        <v>0.0039 ***</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A37,0),4),")")</f>
+        <v>(0.0007)</v>
+      </c>
+      <c r="D38" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A37,0),4),")")</f>
+        <v>(0.0007)</v>
+      </c>
+      <c r="E38" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A37,0),4),")")</f>
+        <v>(0.0006)</v>
+      </c>
+      <c r="F38" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A37,0),4),")")</f>
+        <v>(0.0006)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>A37+1</f>
+        <v>18</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A39,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A39,0))</f>
+        <v xml:space="preserve">0.0004 </v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A39,0))</f>
+        <v xml:space="preserve">0.0004 </v>
+      </c>
+      <c r="E39" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A39,0))</f>
+        <v xml:space="preserve">0.0001 </v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A39,0))</f>
+        <v xml:space="preserve">0.0001 </v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A39,0),4),")")</f>
+        <v>(0.0003)</v>
+      </c>
+      <c r="D40" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A39,0),4),")")</f>
+        <v>(0.0003)</v>
+      </c>
+      <c r="E40" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A39,0),4),")")</f>
+        <v>(0.0003)</v>
+      </c>
+      <c r="F40" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A39,0),4),")")</f>
+        <v>(0.0003)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>A39+1</f>
+        <v>19</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A41,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A41,0))</f>
+        <v xml:space="preserve">0.0002 </v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A41,0))</f>
+        <v xml:space="preserve">0.0002 </v>
+      </c>
+      <c r="E41" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A41,0))</f>
+        <v>0.0006 ***</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A41,0))</f>
+        <v>0.0006 ***</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A41,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+      <c r="D42" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A41,0),4),")")</f>
+        <v>(0.0002)</v>
+      </c>
+      <c r="E42" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A41,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+      <c r="F42" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A41,0),4),")")</f>
+        <v>(0.0001)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A41+1</f>
+        <v>20</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A43,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A43,0))</f>
+        <v xml:space="preserve">0.002 </v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A43,0))</f>
+        <v xml:space="preserve">0.0019 </v>
+      </c>
+      <c r="E43" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A43,0))</f>
+        <v xml:space="preserve">-0.0128 </v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A43,0))</f>
+        <v xml:space="preserve">-0.0128 </v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A43,0),4),")")</f>
+        <v>(0.0292)</v>
+      </c>
+      <c r="D44" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A43,0),4),")")</f>
+        <v>(0.0291)</v>
+      </c>
+      <c r="E44" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A43,0),4),")")</f>
+        <v>(0.0297)</v>
+      </c>
+      <c r="F44" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A43,0),4),")")</f>
+        <v>(0.0297)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>A43+1</f>
+        <v>21</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A45,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A45,0))</f>
+        <v xml:space="preserve">0.0443 </v>
+      </c>
+      <c r="D45" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A45,0))</f>
+        <v xml:space="preserve">0.0424 </v>
+      </c>
+      <c r="E45" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A45,0))</f>
+        <v xml:space="preserve">-0.0438 </v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A45,0))</f>
+        <v xml:space="preserve">-0.0435 </v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A45,0),4),")")</f>
+        <v>(0.043)</v>
+      </c>
+      <c r="D46" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A45,0),4),")")</f>
+        <v>(0.043)</v>
+      </c>
+      <c r="E46" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A45,0),4),")")</f>
+        <v>(0.046)</v>
+      </c>
+      <c r="F46" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A45,0),4),")")</f>
+        <v>(0.046)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>A45+1</f>
+        <v>22</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A47,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A47,0))</f>
+        <v xml:space="preserve">-0.0489 </v>
+      </c>
+      <c r="D47" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A47,0))</f>
+        <v xml:space="preserve">-0.0497 </v>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A47,0))</f>
+        <v>-0.148 ***</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A47,0))</f>
+        <v>-0.1477 ***</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A47,0),4),")")</f>
+        <v>(0.0476)</v>
+      </c>
+      <c r="D48" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A47,0),4),")")</f>
+        <v>(0.0475)</v>
+      </c>
+      <c r="E48" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A47,0),4),")")</f>
+        <v>(0.0443)</v>
+      </c>
+      <c r="F48" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A47,0),4),")")</f>
+        <v>(0.0443)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>A47+1</f>
+        <v>23</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A49,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A49,0))</f>
+        <v>-0.1972 ***</v>
+      </c>
+      <c r="D49" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A49,0))</f>
+        <v>-0.197 ***</v>
+      </c>
+      <c r="E49" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A49,0))</f>
+        <v>-0.2408 ***</v>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A49,0))</f>
+        <v>-0.2411 ***</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A49,0),4),")")</f>
+        <v>(0.0521)</v>
+      </c>
+      <c r="D50" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A49,0),4),")")</f>
+        <v>(0.052)</v>
+      </c>
+      <c r="E50" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A49,0),4),")")</f>
+        <v>(0.0488)</v>
+      </c>
+      <c r="F50" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A49,0),4),")")</f>
+        <v>(0.0488)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>A49+1</f>
+        <v>24</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A51,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A51,0))</f>
+        <v xml:space="preserve">-0.0411 </v>
+      </c>
+      <c r="D51" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A51,0))</f>
+        <v xml:space="preserve">-0.0416 </v>
+      </c>
+      <c r="E51" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A51,0))</f>
+        <v>-0.132 **</v>
+      </c>
+      <c r="F51" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A51,0))</f>
+        <v>-0.1318 **</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A51,0),4),")")</f>
+        <v>(0.0426)</v>
+      </c>
+      <c r="D52" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A51,0),4),")")</f>
+        <v>(0.0425)</v>
+      </c>
+      <c r="E52" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A51,0),4),")")</f>
+        <v>(0.0412)</v>
+      </c>
+      <c r="F52" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A51,0),4),")")</f>
+        <v>(0.0412)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>A51+1</f>
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A53,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A53,0))</f>
+        <v>-0.0736 ***</v>
+      </c>
+      <c r="D53" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A53,0))</f>
+        <v>-0.0739 ***</v>
+      </c>
+      <c r="E53" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A53,0))</f>
+        <v>-0.0806 ***</v>
+      </c>
+      <c r="F53" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A53,0))</f>
+        <v>-0.0806 ***</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A53,0),4),")")</f>
+        <v>(0.0096)</v>
+      </c>
+      <c r="D54" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A53,0),4),")")</f>
+        <v>(0.0096)</v>
+      </c>
+      <c r="E54" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A53,0),4),")")</f>
+        <v>(0.0091)</v>
+      </c>
+      <c r="F54" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A53,0),4),")")</f>
+        <v>(0.0091)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>A53+1</f>
+        <v>26</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A55,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A55,0))</f>
+        <v>-0.0627 ***</v>
+      </c>
+      <c r="D55" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A55,0))</f>
+        <v>-0.0629 ***</v>
+      </c>
+      <c r="E55" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A55,0))</f>
+        <v>-0.0505 ***</v>
+      </c>
+      <c r="F55" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A55,0))</f>
+        <v>-0.0504 ***</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A55,0),4),")")</f>
+        <v>(0.0069)</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A55,0),4),")")</f>
+        <v>(0.0069)</v>
+      </c>
+      <c r="E56" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A55,0),4),")")</f>
+        <v>(0.0065)</v>
+      </c>
+      <c r="F56" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A55,0),4),")")</f>
+        <v>(0.0065)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>A55+1</f>
+        <v>27</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A57,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A57,0))</f>
+        <v xml:space="preserve">0.009 </v>
+      </c>
+      <c r="D57" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A57,0))</f>
+        <v xml:space="preserve">0.0194 </v>
+      </c>
+      <c r="E57" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A57,0))</f>
+        <v>-0.4354 **</v>
+      </c>
+      <c r="F57" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A57,0))</f>
+        <v>-0.4284 **</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A57,0),4),")")</f>
+        <v>(0.1478)</v>
+      </c>
+      <c r="D58" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A57,0),4),")")</f>
+        <v>(0.1478)</v>
+      </c>
+      <c r="E58" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A57,0),4),")")</f>
+        <v>(0.1465)</v>
+      </c>
+      <c r="F58" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A57,0),4),")")</f>
+        <v>(0.1465)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>A57+1</f>
+        <v>28</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A59,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A59,0))</f>
+        <v>-0.1815 ^</v>
+      </c>
+      <c r="D59" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A59,0))</f>
+        <v>-0.1775 ^</v>
+      </c>
+      <c r="E59" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A59,0))</f>
+        <v>-0.2343 **</v>
+      </c>
+      <c r="F59" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A59,0))</f>
+        <v>-0.2331 **</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A59,0),4),")")</f>
+        <v>(0.0945)</v>
+      </c>
+      <c r="D60" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A59,0),4),")")</f>
+        <v>(0.0944)</v>
+      </c>
+      <c r="E60" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A59,0),4),")")</f>
+        <v>(0.0747)</v>
+      </c>
+      <c r="F60" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A59,0),4),")")</f>
+        <v>(0.0747)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>A59+1</f>
+        <v>29</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A61,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A61,0))</f>
+        <v xml:space="preserve">0.1652 </v>
+      </c>
+      <c r="D61" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A61,0))</f>
+        <v xml:space="preserve">0.1571 </v>
+      </c>
+      <c r="E61" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A61,0))</f>
+        <v xml:space="preserve">0.1614 </v>
+      </c>
+      <c r="F61" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A61,0))</f>
+        <v xml:space="preserve">0.1602 </v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A61,0),4),")")</f>
+        <v>(0.3999)</v>
+      </c>
+      <c r="D62" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A61,0),4),")")</f>
+        <v>(0.3998)</v>
+      </c>
+      <c r="E62" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A61,0),4),")")</f>
+        <v>(0.3875)</v>
+      </c>
+      <c r="F62" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A61,0),4),")")</f>
+        <v>(0.3872)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>A61+1</f>
+        <v>30</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A63,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A63,0))</f>
+        <v>-0.1448 ^</v>
+      </c>
+      <c r="D63" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A63,0))</f>
+        <v>-0.1412 ^</v>
+      </c>
+      <c r="E63" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A63,0))</f>
+        <v xml:space="preserve">-0.1135 </v>
+      </c>
+      <c r="F63" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A63,0))</f>
+        <v xml:space="preserve">-0.1126 </v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A63,0),4),")")</f>
+        <v>(0.0855)</v>
+      </c>
+      <c r="D64" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A63,0),4),")")</f>
+        <v>(0.0854)</v>
+      </c>
+      <c r="E64" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A63,0),4),")")</f>
+        <v>(0.0765)</v>
+      </c>
+      <c r="F64" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A63,0),4),")")</f>
+        <v>(0.0765)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>A63+1</f>
+        <v>31</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A65,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A65,0))</f>
+        <v xml:space="preserve">0.0574 </v>
+      </c>
+      <c r="D65" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A65,0))</f>
+        <v xml:space="preserve">0.0563 </v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A65,0))</f>
+        <v xml:space="preserve">-0.0025 </v>
+      </c>
+      <c r="F65" s="7" t="str">
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A65,0))</f>
+        <v xml:space="preserve">-0.003 </v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A65,0),4),")")</f>
+        <v>(0.112)</v>
+      </c>
+      <c r="D66" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A65,0),4),")")</f>
+        <v>(0.112)</v>
+      </c>
+      <c r="E66" s="11" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A65,0),4),")")</f>
+        <v>(0.0829)</v>
+      </c>
+      <c r="F66" s="9" t="str">
+        <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A65,0),4),")")</f>
+        <v>(0.0829)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="13">
+        <f>ROUND('mof4.fr_female'!D75,4)</f>
+        <v>0.3805</v>
+      </c>
+      <c r="D69" s="14">
+        <f>ROUND('mod.fr.int_female'!D74,4)</f>
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="E69" s="13">
+        <f>ROUND('mof4.fr_male'!D74,4)</f>
+        <v>0.378</v>
+      </c>
+      <c r="F69" s="14">
+        <f>ROUND('mod4.fr.int_male'!D74,4)</f>
+        <v>0.37740000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11281,99 +14006,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8997CE3B-0399-4471-BD7F-139B81223C98}">
-  <dimension ref="A3:I17"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="10" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1'!B2,4)," ",'mod1'!G2)</f>
         <v>-0.1161 ***</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="7" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L!B2,4)," ",mod1L!G2)</f>
         <v>-0.1102 ***</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="10" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1.fr'!B2,4)," ",'mod1.fr'!G2)</f>
         <v>-0.1538 ***</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="7" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L.fr!B2,4)," ",mod1L.fr!G2)</f>
         <v>-0.1417 ***</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="11" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1'!D2,4),")")</f>
         <v>(0.0189)</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L!D2,4),")")</f>
         <v>(0.0228)</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="11" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1.fr'!D2,4),")")</f>
         <v>(0.0231)</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L.fr!D2,4),")")</f>
         <v>(0.0281)</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="10" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1'!B3,4)," ",'mod1'!G3)</f>
         <v>-0.2086 ***</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="7" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L!B3,4)," ",mod1L!G3)</f>
         <v>-0.1368 ***</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="10" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1.fr'!B3,4)," ",'mod1.fr'!G3)</f>
         <v>-0.2989 ***</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="7" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L.fr!B3,4)," ",mod1L.fr!G3)</f>
         <v>-0.2039 ***</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="str">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1'!D3,4),")")</f>
         <v>(0.0194)</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L!D3,4),")")</f>
         <v>(0.0233)</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="11" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1.fr'!D3,4),")")</f>
         <v>(0.0255)</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L.fr!D3,4),")")</f>
         <v>(0.031)</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
+        <f>ROUND('mod1.fr'!D6,4)</f>
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -11395,15 +14148,6 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="3">
-        <f>ROUND('mod1.fr'!D6,4)</f>
-        <v>0.45190000000000002</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
@@ -11420,6 +14164,10 @@
       <c r="A17" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11430,7 +14178,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/Paper/Tables.xlsx
+++ b/Analysis/Paper/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A09DA-6580-45B0-8D49-43C5F0116002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7995AA-6B39-44EA-AB85-01AACB3361B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="4" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="12" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="mod1" sheetId="2" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="Table2" sheetId="1" r:id="rId5"/>
     <sheet name="mod2" sheetId="6" r:id="rId6"/>
     <sheet name="mod2.fr" sheetId="7" r:id="rId7"/>
-    <sheet name="mod3" sheetId="8" r:id="rId8"/>
-    <sheet name="mod3.fr" sheetId="9" r:id="rId9"/>
-    <sheet name="mod4" sheetId="10" r:id="rId10"/>
-    <sheet name="mod4.fr" sheetId="11" r:id="rId11"/>
-    <sheet name="Table3" sheetId="12" r:id="rId12"/>
-    <sheet name="mof4.fr_female" sheetId="13" r:id="rId13"/>
-    <sheet name="mod.fr.int_female" sheetId="14" r:id="rId14"/>
-    <sheet name="mof4.fr_male" sheetId="15" r:id="rId15"/>
-    <sheet name="mod4.fr.int_male" sheetId="16" r:id="rId16"/>
-    <sheet name="Table 4" sheetId="17" r:id="rId17"/>
+    <sheet name="mod2L.fr" sheetId="18" r:id="rId8"/>
+    <sheet name="mod3" sheetId="8" r:id="rId9"/>
+    <sheet name="mod3.fr" sheetId="9" r:id="rId10"/>
+    <sheet name="mod4" sheetId="10" r:id="rId11"/>
+    <sheet name="mod4.fr" sheetId="11" r:id="rId12"/>
+    <sheet name="Table3" sheetId="12" r:id="rId13"/>
+    <sheet name="mof4.fr_female" sheetId="13" r:id="rId14"/>
+    <sheet name="mod.fr.int_female" sheetId="14" r:id="rId15"/>
+    <sheet name="mof4.fr_male" sheetId="15" r:id="rId16"/>
+    <sheet name="mod4.fr.int_male" sheetId="16" r:id="rId17"/>
+    <sheet name="Table 4" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="136">
   <si>
     <t>Overweight</t>
   </si>
@@ -453,6 +454,12 @@
   <si>
     <t>(4)</t>
   </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>LL Test for Random Effects (p-value)</t>
+  </si>
 </sst>
 </file>
 
@@ -462,7 +469,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,13 +484,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -559,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -569,13 +588,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -587,12 +600,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,6 +620,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,7 +970,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D2" activeCellId="1" sqref="B2:B3 D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1047,741 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91388D41-0987-4BB4-86EF-62169CCBD7BE}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-4.0591311900000003E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.96022149999999995</v>
+      </c>
+      <c r="D2">
+        <v>2.2629667400000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>-1.79</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2&lt;0.001,"***",IF(F2&lt;0.01,"**",IF(F2&lt;0.05,"*",IF(F2&lt;0.1,"^",""))))</f>
+        <v>^</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>-0.11308718249999999</v>
+      </c>
+      <c r="C3">
+        <v>0.8930728</v>
+      </c>
+      <c r="D3">
+        <v>2.5387038000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>-4.45</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G29" si="0">IF(F3&lt;0.001,"***",IF(F3&lt;0.01,"**",IF(F3&lt;0.05,"*",IF(F3&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>6.3816808099999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0658970999999999</v>
+      </c>
+      <c r="D4">
+        <v>2.16067125E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.95</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>-4.0862860199999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.95996079999999995</v>
+      </c>
+      <c r="D5">
+        <v>4.9339748000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>-8.2799999999999994</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.1E-16</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>-0.18100754129999999</v>
+      </c>
+      <c r="C6">
+        <v>0.83442910000000003</v>
+      </c>
+      <c r="D6">
+        <v>2.7859234600000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>-6.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.2000000000000001E-11</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>-2.3280275E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.97698859999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.9926853600000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.78</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>4.9894195299999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.0511599</v>
+      </c>
+      <c r="D8">
+        <v>3.0609902200000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.63</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>-5.13529026E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.94994339999999999</v>
+      </c>
+      <c r="D9">
+        <v>5.4359438699999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>-0.94</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>-4.3591934000000001E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.99565029999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.3156521799999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.33</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1.1604148E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.0116717</v>
+      </c>
+      <c r="D11">
+        <v>3.781735E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.07</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>8.6943779400000004E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.0908354</v>
+      </c>
+      <c r="D12">
+        <v>2.82560257E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.08</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>0.203541635</v>
+      </c>
+      <c r="C13">
+        <v>1.2257362000000001</v>
+      </c>
+      <c r="D13">
+        <v>3.1077024000000002E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.55</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.8E-11</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0.1150942772</v>
+      </c>
+      <c r="C14">
+        <v>1.1219792</v>
+      </c>
+      <c r="D14">
+        <v>4.6145682299999997E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>5.4027637000000003E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.0054174</v>
+      </c>
+      <c r="D15">
+        <v>7.2122528300000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>4.4631543000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.0044731</v>
+      </c>
+      <c r="D16">
+        <v>4.6985339999999998E-4</v>
+      </c>
+      <c r="E16">
+        <v>9.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>-1.2716689E-3</v>
+      </c>
+      <c r="C17">
+        <v>0.99872910000000004</v>
+      </c>
+      <c r="D17">
+        <v>1.8472430000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>-6.88</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5.8000000000000003E-12</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>2.8931939999999999E-4</v>
+      </c>
+      <c r="C18">
+        <v>1.0002894</v>
+      </c>
+      <c r="D18">
+        <v>1.077726E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.68</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>-8.6424537999999999E-3</v>
+      </c>
+      <c r="C19">
+        <v>0.99139480000000002</v>
+      </c>
+      <c r="D19">
+        <v>2.0738567499999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>-0.42</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2.6274529E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.0026309</v>
+      </c>
+      <c r="D20">
+        <v>3.1276802499999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.08</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>-9.9017476100000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.9057269</v>
+      </c>
+      <c r="D21">
+        <v>3.2389123499999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>-3.06</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>-0.2208620697</v>
+      </c>
+      <c r="C22">
+        <v>0.80182730000000002</v>
+      </c>
+      <c r="D22">
+        <v>3.5626981600000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>-6.2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5.7E-10</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>-8.8831403700000006E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.91499980000000003</v>
+      </c>
+      <c r="D23">
+        <v>2.9522010000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>-3.01</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>-7.4008444000000007E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.92866389999999999</v>
+      </c>
+      <c r="D24">
+        <v>6.5701018999999999E-3</v>
+      </c>
+      <c r="E24">
+        <v>-11.26</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>-5.9096953799999997E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.94261539999999999</v>
+      </c>
+      <c r="D25">
+        <v>4.7113939000000002E-3</v>
+      </c>
+      <c r="E25">
+        <v>-12.54</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>-0.47735655999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.62042129999999995</v>
+      </c>
+      <c r="D26">
+        <v>0.10100679059999999</v>
+      </c>
+      <c r="E26">
+        <v>-4.7300000000000004</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.3E-6</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>-0.41717223850000001</v>
+      </c>
+      <c r="C27">
+        <v>0.65890740000000003</v>
+      </c>
+      <c r="D27">
+        <v>5.4464341899999998E-2</v>
+      </c>
+      <c r="E27">
+        <v>-7.66</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.9000000000000001E-14</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>-4.2997046999999997E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.95791420000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.2733923781</v>
+      </c>
+      <c r="E28">
+        <v>-0.16</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>-0.34318446380000001</v>
+      </c>
+      <c r="C29">
+        <v>0.70950729999999995</v>
+      </c>
+      <c r="D29">
+        <v>5.3263277499999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>-6.44</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.2E-10</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>***</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0.38518619999999998</v>
+      </c>
+      <c r="E33">
+        <v>0.14836840000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF5D928-7B16-48E5-9106-CF382A052326}">
   <dimension ref="A1:G68"/>
   <sheetViews>
@@ -2479,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5971996-C493-4E34-8CB5-DA105C8BC0EA}">
   <dimension ref="A1:G71"/>
   <sheetViews>
@@ -4150,12 +4923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BF295-AB2E-413A-A9E0-35598F6A239C}">
   <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4166,58 +4939,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod2'!B2,4)," ",'mod2'!G2)</f>
         <v>-0.0481 *</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND('mod2.fr'!B2,4)," ",'mod2.fr'!G2)</f>
         <v>-0.0457 *</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod3.fr'!B2,4)," ",'mod3.fr'!G2)</f>
         <v>-0.0406 ^</v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND('mod4.fr'!B2,4)," ",'mod4.fr'!G2)</f>
         <v>-0.0409 ^</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod2'!D2,4),")")</f>
         <v>(0.0191)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod2.fr'!D2,4),")")</f>
         <v>(0.0228)</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod3.fr'!D2,4),")")</f>
         <v>(0.0226)</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod4.fr'!D2,4),")")</f>
         <v>(0.0226)</v>
       </c>
@@ -4226,43 +4999,43 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2'!$G$2,Table3!A5,0))</f>
         <v>-0.1049 ***</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A5,0))</f>
         <v>-0.1049 ***</v>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A5,0))</f>
         <v>-0.1131 ***</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A5,0))</f>
         <v>-0.106 ***</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A5,0),4),")")</f>
         <v>(0.0203)</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A5,0),4),")")</f>
         <v>(0.0257)</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A5,0),4),")")</f>
         <v>(0.0254)</v>
       </c>
-      <c r="F6" s="9" t="str">
+      <c r="F6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A5,0),4),")")</f>
         <v>(0.0253)</v>
       </c>
@@ -4272,41 +5045,41 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2'!$G$2,Table3!A7,0))</f>
         <v>0.0541 **</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A7,0))</f>
         <v>0.0541 ***</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A7,0))</f>
         <v>0.0638 **</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A7,0))</f>
         <v>0.0672 **</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="str">
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A7,0),4),")")</f>
         <v>(0.0167)</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A7,0),4),")")</f>
         <v>(0.0219)</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A7,0),4),")")</f>
         <v>(0.0216)</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A7,0),4),")")</f>
         <v>(0.0221)</v>
       </c>
@@ -4316,41 +5089,41 @@
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2'!$G$2,Table3!A9,0))</f>
         <v>-0.0672 ***</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A9,0))</f>
         <v>-0.0672 ***</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A9,0))</f>
         <v>-0.0409 ***</v>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A9,0))</f>
         <v>-0.0444 ***</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="str">
+      <c r="B10" s="19"/>
+      <c r="C10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A9,0),4),")")</f>
         <v>(0.0037)</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A9,0),4),")")</f>
         <v>(0.0044)</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A9,0),4),")")</f>
         <v>(0.0049)</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A9,0),4),")")</f>
         <v>(0.0049)</v>
       </c>
@@ -4360,41 +5133,41 @@
         <f>A9+1</f>
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2'!$G$2,Table3!A11,0))</f>
         <v>-0.1577 ***</v>
       </c>
-      <c r="D11" s="7" t="str">
+      <c r="D11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A11,0))</f>
         <v>-0.1577 ***</v>
       </c>
-      <c r="E11" s="10" t="str">
+      <c r="E11" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A11,0))</f>
         <v>-0.181 ***</v>
       </c>
-      <c r="F11" s="7" t="str">
+      <c r="F11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A11,0))</f>
         <v>-0.1785 ***</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11" t="str">
+      <c r="B12" s="19"/>
+      <c r="C12" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A11,0),4),")")</f>
         <v>(0.0211)</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A11,0),4),")")</f>
         <v>(0.0282)</v>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A11,0),4),")")</f>
         <v>(0.0279)</v>
       </c>
-      <c r="F12" s="9" t="str">
+      <c r="F12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A11,0),4),")")</f>
         <v>(0.0278)</v>
       </c>
@@ -4404,41 +5177,41 @@
         <f>A11+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2'!$G$2,Table3!A13,0))</f>
         <v xml:space="preserve">-0.0128 </v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A13,0))</f>
         <v xml:space="preserve">-0.0128 </v>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A13,0))</f>
         <v xml:space="preserve">-0.0233 </v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A13,0))</f>
         <v xml:space="preserve">-0.0205 </v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="11" t="str">
+      <c r="B14" s="19"/>
+      <c r="C14" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A13,0),4),")")</f>
         <v>(0.0231)</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A13,0),4),")")</f>
         <v>(0.0304)</v>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A13,0),4),")")</f>
         <v>(0.0299)</v>
       </c>
-      <c r="F14" s="9" t="str">
+      <c r="F14" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A13,0),4),")")</f>
         <v>(0.0298)</v>
       </c>
@@ -4448,41 +5221,41 @@
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2'!$G$2,Table3!A15,0))</f>
         <v>0.0563 *</v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A15,0))</f>
         <v>0.0563 ^</v>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A15,0))</f>
         <v xml:space="preserve">0.0499 </v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A15,0))</f>
         <v>0.0517 ^</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="11" t="str">
+      <c r="B16" s="19"/>
+      <c r="C16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A15,0),4),")")</f>
         <v>(0.0259)</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A15,0),4),")")</f>
         <v>(0.0309)</v>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A15,0),4),")")</f>
         <v>(0.0306)</v>
       </c>
-      <c r="F16" s="9" t="str">
+      <c r="F16" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A15,0),4),")")</f>
         <v>(0.0306)</v>
       </c>
@@ -4492,41 +5265,41 @@
         <f>A15+1</f>
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2'!$G$2,Table3!A17,0))</f>
         <v xml:space="preserve">-0.0548 </v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A17,0))</f>
         <v xml:space="preserve">-0.0548 </v>
       </c>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A17,0))</f>
         <v xml:space="preserve">-0.0514 </v>
       </c>
-      <c r="F17" s="7" t="str">
+      <c r="F17" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A17,0))</f>
         <v xml:space="preserve">-0.0389 </v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="11" t="str">
+      <c r="B18" s="19"/>
+      <c r="C18" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A17,0),4),")")</f>
         <v>(0.0456)</v>
       </c>
-      <c r="D18" s="9" t="str">
+      <c r="D18" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A17,0),4),")")</f>
         <v>(0.0547)</v>
       </c>
-      <c r="E18" s="11" t="str">
+      <c r="E18" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A17,0),4),")")</f>
         <v>(0.0544)</v>
       </c>
-      <c r="F18" s="9" t="str">
+      <c r="F18" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A17,0),4),")")</f>
         <v>(0.0544)</v>
       </c>
@@ -4536,41 +5309,41 @@
         <f>A17+1</f>
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2'!$G$2,Table3!A19,0))</f>
         <v xml:space="preserve">-0.0025 </v>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A19,0))</f>
         <v xml:space="preserve">-0.0025 </v>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A19,0))</f>
         <v xml:space="preserve">-0.0044 </v>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="F19" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A19,0))</f>
         <v xml:space="preserve">-0.0058 </v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="11" t="str">
+      <c r="B20" s="19"/>
+      <c r="C20" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A19,0),4),")")</f>
         <v>(0.0112)</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A19,0),4),")")</f>
         <v>(0.0132)</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A19,0),4),")")</f>
         <v>(0.0132)</v>
       </c>
-      <c r="F20" s="9" t="str">
+      <c r="F20" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A19,0),4),")")</f>
         <v>(0.0131)</v>
       </c>
@@ -4580,41 +5353,41 @@
         <f>A19+1</f>
         <v>9</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2'!$G$2,Table3!A21,0))</f>
         <v>0.0094 **</v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A21,0))</f>
         <v>0.0094 **</v>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A21,0))</f>
         <v>0.0116 **</v>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A21,0))</f>
         <v>0.0133 ***</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="11" t="str">
+      <c r="B22" s="19"/>
+      <c r="C22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A21,0),4),")")</f>
         <v>(0.0033)</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A21,0),4),")")</f>
         <v>(0.0038)</v>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A21,0),4),")")</f>
         <v>(0.0038)</v>
       </c>
-      <c r="F22" s="9" t="str">
+      <c r="F22" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A21,0),4),")")</f>
         <v>(0.0038)</v>
       </c>
@@ -4624,41 +5397,41 @@
         <f>A21+1</f>
         <v>10</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2'!$G$2,Table3!A23,0))</f>
         <v>0.0669 **</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A23,0))</f>
         <v>0.0669 **</v>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E23" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A23,0))</f>
         <v>0.0869 **</v>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="F23" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A23,0))</f>
         <v>0.0984 ***</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="11" t="str">
+      <c r="B24" s="19"/>
+      <c r="C24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A23,0),4),")")</f>
         <v>(0.0228)</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A23,0),4),")")</f>
         <v>(0.0285)</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A23,0),4),")")</f>
         <v>(0.0283)</v>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A23,0),4),")")</f>
         <v>(0.0282)</v>
       </c>
@@ -4668,41 +5441,41 @@
         <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2'!$G$2,Table3!A25,0))</f>
         <v>0.1701 ***</v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A25,0))</f>
         <v>0.1701 ***</v>
       </c>
-      <c r="E25" s="10" t="str">
+      <c r="E25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A25,0))</f>
         <v>0.2035 ***</v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A25,0))</f>
         <v>0.2135 ***</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="11" t="str">
+      <c r="B26" s="19"/>
+      <c r="C26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A25,0),4),")")</f>
         <v>(0.0248)</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A25,0),4),")")</f>
         <v>(0.0314)</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A25,0),4),")")</f>
         <v>(0.0311)</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A25,0),4),")")</f>
         <v>(0.031)</v>
       </c>
@@ -4712,41 +5485,41 @@
         <f>A25+1</f>
         <v>12</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2'!$G$2,Table3!A27,0))</f>
         <v>0.1136 **</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A27,0))</f>
         <v>0.1136 *</v>
       </c>
-      <c r="E27" s="10" t="str">
+      <c r="E27" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A27,0))</f>
         <v>0.1151 *</v>
       </c>
-      <c r="F27" s="7" t="str">
+      <c r="F27" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A27,0))</f>
         <v>0.1448 **</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="11" t="str">
+      <c r="B28" s="19"/>
+      <c r="C28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A27,0),4),")")</f>
         <v>(0.0383)</v>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A27,0),4),")")</f>
         <v>(0.0465)</v>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A27,0),4),")")</f>
         <v>(0.0461)</v>
       </c>
-      <c r="F28" s="9" t="str">
+      <c r="F28" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A27,0),4),")")</f>
         <v>(0.0466)</v>
       </c>
@@ -4756,41 +5529,41 @@
         <f>A27+1</f>
         <v>13</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2'!$G$2,Table3!A29,0))</f>
         <v xml:space="preserve">0.0137 </v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A29,0))</f>
         <v xml:space="preserve">0.0137 </v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A29,0))</f>
         <v xml:space="preserve">0.0054 </v>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A29,0))</f>
         <v xml:space="preserve">0.0011 </v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="11" t="str">
+      <c r="B30" s="19"/>
+      <c r="C30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A29,0),4),")")</f>
         <v>(0.0613)</v>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A29,0),4),")")</f>
         <v>(0.0726)</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A29,0),4),")")</f>
         <v>(0.0721)</v>
       </c>
-      <c r="F30" s="9" t="str">
+      <c r="F30" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A29,0),4),")")</f>
         <v>(0.0729)</v>
       </c>
@@ -4800,41 +5573,41 @@
         <f>A29+1</f>
         <v>14</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="10" t="str">
+      <c r="C31" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2'!$G$2,Table3!A31,0))</f>
         <v>0.0036 ***</v>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D31" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A31,0))</f>
         <v>0.0036 ***</v>
       </c>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A31,0))</f>
         <v>0.0045 ***</v>
       </c>
-      <c r="F31" s="7" t="str">
+      <c r="F31" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A31,0))</f>
         <v>0.0044 ***</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="11" t="str">
+      <c r="B32" s="19"/>
+      <c r="C32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A31,0),4),")")</f>
         <v>(0.0004)</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A31,0),4),")")</f>
         <v>(0.0005)</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A31,0),4),")")</f>
         <v>(0.0005)</v>
       </c>
-      <c r="F32" s="9" t="str">
+      <c r="F32" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A31,0),4),")")</f>
         <v>(0.0005)</v>
       </c>
@@ -4844,41 +5617,41 @@
         <f>A31+1</f>
         <v>15</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="10" t="str">
+      <c r="C33" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2'!$G$2,Table3!A33,0))</f>
         <v>-0.0012 ***</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A33,0))</f>
         <v>-0.0012 ***</v>
       </c>
-      <c r="E33" s="10" t="str">
+      <c r="E33" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A33,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A33,0))</f>
         <v>-0.0013 ***</v>
       </c>
-      <c r="F33" s="7" t="str">
+      <c r="F33" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A33,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A33,0))</f>
         <v xml:space="preserve">0.0002 </v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="11" t="str">
+      <c r="B34" s="19"/>
+      <c r="C34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A33,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
-      <c r="D34" s="9" t="str">
+      <c r="D34" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A33,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A33,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
-      <c r="F34" s="9" t="str">
+      <c r="F34" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A33,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
@@ -4888,41 +5661,41 @@
         <f>A33+1</f>
         <v>16</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2'!$G$2,Table3!A35,0))</f>
         <v>0.0004 ***</v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A35,0))</f>
         <v xml:space="preserve">0.0004 </v>
       </c>
-      <c r="E35" s="10" t="str">
+      <c r="E35" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A35,0))</f>
         <v>0.0003 **</v>
       </c>
-      <c r="F35" s="7" t="str">
+      <c r="F35" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A35,0))</f>
         <v>0.0004 ***</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="11" t="str">
+      <c r="B36" s="19"/>
+      <c r="C36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A35,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
-      <c r="D36" s="9" t="str">
+      <c r="D36" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A35,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A35,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
-      <c r="F36" s="9" t="str">
+      <c r="F36" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A35,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
@@ -4932,41 +5705,41 @@
         <f>A35+1</f>
         <v>17</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="10" t="str">
+      <c r="C37" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2'!$G$2,Table3!A37,0))</f>
         <v xml:space="preserve">-0.0256 </v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A37,0))</f>
         <v xml:space="preserve">-0.0256 </v>
       </c>
-      <c r="E37" s="10" t="str">
+      <c r="E37" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A37,0))</f>
         <v xml:space="preserve">-0.0086 </v>
       </c>
-      <c r="F37" s="7" t="str">
+      <c r="F37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A37,0))</f>
         <v xml:space="preserve">-0.0089 </v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="11" t="str">
+      <c r="B38" s="19"/>
+      <c r="C38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A37,0),4),")")</f>
         <v>(0.0181)</v>
       </c>
-      <c r="D38" s="9" t="str">
+      <c r="D38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A37,0),4),")")</f>
         <v>(0.0209)</v>
       </c>
-      <c r="E38" s="11" t="str">
+      <c r="E38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A37,0),4),")")</f>
         <v>(0.0207)</v>
       </c>
-      <c r="F38" s="9" t="str">
+      <c r="F38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A37,0),4),")")</f>
         <v>(0.0207)</v>
       </c>
@@ -4976,41 +5749,41 @@
         <f>A37+1</f>
         <v>18</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="10" t="str">
+      <c r="C39" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2'!$G$2,Table3!A39,0))</f>
         <v xml:space="preserve">-0.0334 </v>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A39,0))</f>
         <v xml:space="preserve">-0.0334 </v>
       </c>
-      <c r="E39" s="10" t="str">
+      <c r="E39" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A39,0))</f>
         <v xml:space="preserve">0.0026 </v>
       </c>
-      <c r="F39" s="7" t="str">
+      <c r="F39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A39,0))</f>
         <v xml:space="preserve">0.0035 </v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="11" t="str">
+      <c r="B40" s="19"/>
+      <c r="C40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A39,0),4),")")</f>
         <v>(0.0268)</v>
       </c>
-      <c r="D40" s="9" t="str">
+      <c r="D40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A39,0),4),")")</f>
         <v>(0.0315)</v>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A39,0),4),")")</f>
         <v>(0.0313)</v>
       </c>
-      <c r="F40" s="9" t="str">
+      <c r="F40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A39,0),4),")")</f>
         <v>(0.0312)</v>
       </c>
@@ -5020,41 +5793,41 @@
         <f>A39+1</f>
         <v>19</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="10" t="str">
+      <c r="C41" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2'!$G$2,Table3!A41,0))</f>
         <v>-0.0604 *</v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A41,0))</f>
         <v>-0.0604 ^</v>
       </c>
-      <c r="E41" s="10" t="str">
+      <c r="E41" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A41,0))</f>
         <v>-0.099 **</v>
       </c>
-      <c r="F41" s="7" t="str">
+      <c r="F41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A41,0))</f>
         <v>-0.1044 **</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="11" t="str">
+      <c r="B42" s="19"/>
+      <c r="C42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A41,0),4),")")</f>
         <v>(0.0251)</v>
       </c>
-      <c r="D42" s="9" t="str">
+      <c r="D42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A41,0),4),")")</f>
         <v>(0.0326)</v>
       </c>
-      <c r="E42" s="11" t="str">
+      <c r="E42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A41,0),4),")")</f>
         <v>(0.0324)</v>
       </c>
-      <c r="F42" s="9" t="str">
+      <c r="F42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A41,0),4),")")</f>
         <v>(0.0323)</v>
       </c>
@@ -5064,41 +5837,41 @@
         <f>A41+1</f>
         <v>20</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="10" t="str">
+      <c r="C43" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2'!$G$2,Table3!A43,0))</f>
         <v>-0.1224 ***</v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A43,0))</f>
         <v>-0.1224 ***</v>
       </c>
-      <c r="E43" s="10" t="str">
+      <c r="E43" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A43,0))</f>
         <v>-0.2209 ***</v>
       </c>
-      <c r="F43" s="7" t="str">
+      <c r="F43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A43,0))</f>
         <v>-0.2241 ***</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="11" t="str">
+      <c r="B44" s="19"/>
+      <c r="C44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A43,0),4),")")</f>
         <v>(0.0274)</v>
       </c>
-      <c r="D44" s="9" t="str">
+      <c r="D44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A43,0),4),")")</f>
         <v>(0.0356)</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A43,0),4),")")</f>
         <v>(0.0356)</v>
       </c>
-      <c r="F44" s="9" t="str">
+      <c r="F44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A43,0),4),")")</f>
         <v>(0.0355)</v>
       </c>
@@ -5108,41 +5881,41 @@
         <f>A43+1</f>
         <v>21</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="10" t="str">
+      <c r="C45" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2'!$G$2,Table3!A45,0))</f>
         <v xml:space="preserve">-0.0254 </v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A45,0))</f>
         <v xml:space="preserve">-0.0254 </v>
       </c>
-      <c r="E45" s="10" t="str">
+      <c r="E45" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A45,0))</f>
         <v>-0.0888 **</v>
       </c>
-      <c r="F45" s="7" t="str">
+      <c r="F45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A45,0))</f>
         <v>-0.0931 **</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="11" t="str">
+      <c r="B46" s="19"/>
+      <c r="C46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A45,0),4),")")</f>
         <v>(0.0227)</v>
       </c>
-      <c r="D46" s="9" t="str">
+      <c r="D46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2.fr'!$D$2,Table3!A45,0),4),")")</f>
         <v>(0.0295)</v>
       </c>
-      <c r="E46" s="11" t="str">
+      <c r="E46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A45,0),4),")")</f>
         <v>(0.0295)</v>
       </c>
-      <c r="F46" s="9" t="str">
+      <c r="F46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A45,0),4),")")</f>
         <v>(0.0294)</v>
       </c>
@@ -5152,29 +5925,29 @@
         <f>A45+1</f>
         <v>22</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="10" t="str">
+      <c r="C47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A47,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A47,0))</f>
         <v>-0.074 ***</v>
       </c>
-      <c r="F47" s="7" t="str">
+      <c r="F47" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A47,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A47,0))</f>
         <v>-0.0762 ***</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="11" t="str">
+      <c r="B48" s="19"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A47,0),4),")")</f>
         <v>(0.0066)</v>
       </c>
-      <c r="F48" s="9" t="str">
+      <c r="F48" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A47,0),4),")")</f>
         <v>(0.0066)</v>
       </c>
@@ -5184,29 +5957,29 @@
         <f>A47+1</f>
         <v>23</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="10" t="str">
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A49,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A49,0))</f>
         <v>-0.0591 ***</v>
       </c>
-      <c r="F49" s="7" t="str">
+      <c r="F49" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A49,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A49,0))</f>
         <v>-0.0564 ***</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="11" t="str">
+      <c r="B50" s="19"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A49,0),4),")")</f>
         <v>(0.0047)</v>
       </c>
-      <c r="F50" s="9" t="str">
+      <c r="F50" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A49,0),4),")")</f>
         <v>(0.0047)</v>
       </c>
@@ -5216,29 +5989,29 @@
         <f>A49+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10" t="str">
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A51,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A51,0))</f>
         <v>-0.4774 ***</v>
       </c>
-      <c r="F51" s="7" t="str">
+      <c r="F51" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A51,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A51,0))</f>
         <v>-0.2479 *</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="11" t="str">
+      <c r="B52" s="19"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A51,0),4),")")</f>
         <v>(0.101)</v>
       </c>
-      <c r="F52" s="9" t="str">
+      <c r="F52" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A51,0),4),")")</f>
         <v>(0.1036)</v>
       </c>
@@ -5248,29 +6021,29 @@
         <f>A51+1</f>
         <v>25</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="10" t="str">
+      <c r="C53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A53,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A53,0))</f>
         <v>-0.4172 ***</v>
       </c>
-      <c r="F53" s="7" t="str">
+      <c r="F53" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A53,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A53,0))</f>
         <v>-0.204 ***</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="11" t="str">
+      <c r="B54" s="19"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A53,0),4),")")</f>
         <v>(0.0545)</v>
       </c>
-      <c r="F54" s="9" t="str">
+      <c r="F54" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A53,0),4),")")</f>
         <v>(0.0582)</v>
       </c>
@@ -5280,29 +6053,29 @@
         <f>A53+1</f>
         <v>26</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="10" t="str">
+      <c r="C55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A55,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A55,0))</f>
         <v xml:space="preserve">-0.043 </v>
       </c>
-      <c r="F55" s="7" t="str">
+      <c r="F55" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A55,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A55,0))</f>
         <v xml:space="preserve">0.2133 </v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="11" t="str">
+      <c r="B56" s="19"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A55,0),4),")")</f>
         <v>(0.2734)</v>
       </c>
-      <c r="F56" s="9" t="str">
+      <c r="F56" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A55,0),4),")")</f>
         <v>(0.2753)</v>
       </c>
@@ -5312,29 +6085,29 @@
         <f>A55+1</f>
         <v>27</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="10" t="str">
+      <c r="C57" s="8"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A57,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A57,0))</f>
         <v>-0.3432 ***</v>
       </c>
-      <c r="F57" s="7" t="str">
+      <c r="F57" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A57,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A57,0))</f>
         <v>-0.123 *</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="11" t="str">
+      <c r="B58" s="19"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod3.fr'!$D$2,Table3!A57,0),4),")")</f>
         <v>(0.0533)</v>
       </c>
-      <c r="F58" s="9" t="str">
+      <c r="F58" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A57,0),4),")")</f>
         <v>(0.0565)</v>
       </c>
@@ -5344,23 +6117,23 @@
         <f>A57+1</f>
         <v>28</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="7" t="str">
+      <c r="C59" s="8"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr'!$B$2,Table3!A59,0),4)," ",OFFSET('mod4.fr'!$G$2,Table3!A59,0))</f>
         <v xml:space="preserve">0.0197 </v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="9" t="str">
+      <c r="B60" s="19"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr'!$D$2,Table3!A59,0),4),")")</f>
         <v>(0.0663)</v>
       </c>
@@ -5370,69 +6143,71 @@
         <f>A59+1</f>
         <v>29</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14">
+      <c r="C63" s="11"/>
+      <c r="D63" s="12">
         <f>ROUND('mod2.fr'!D26,4)</f>
         <v>0.40110000000000001</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="11">
         <f>ROUND('mod3.fr'!D33,4)</f>
         <v>0.38519999999999999</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="12">
         <f>ROUND('mod4.fr'!D71,4)</f>
         <v>0.37759999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -5440,24 +6215,22 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F8F94-28F1-435A-A302-0413B10E8D9E}">
   <dimension ref="A1:G75"/>
   <sheetViews>
@@ -7116,7 +7889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16EA22-A059-4F15-98ED-F5187BF21EBC}">
   <dimension ref="A1:G74"/>
   <sheetViews>
@@ -8859,7 +9632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63C1DA5-55A6-4264-BFFF-6D38CC49E3CC}">
   <dimension ref="A1:G74"/>
   <sheetViews>
@@ -10518,7 +11291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6754B77A-E7B8-4222-98B0-49B82EC36D00}">
   <dimension ref="A1:G74"/>
   <sheetViews>
@@ -12261,7 +13034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D30258-0279-42C9-AFDD-19DB817A80C5}">
   <dimension ref="A2:F69"/>
   <sheetViews>
@@ -12277,52 +13050,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mof4.fr_female'!B2,4)," ",'mof4.fr_female'!G2)</f>
         <v xml:space="preserve">-0.0442 </v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND('mod.fr.int_female'!B2,4), " ", 'mod.fr.int_female'!G2)</f>
         <v>-0.1241 *</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mof4.fr_male'!B2,4)," ",'mof4.fr_male'!G2)</f>
         <v xml:space="preserve">-0.0307 </v>
       </c>
-      <c r="F3" s="7" t="str">
+      <c r="F3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND('mod4.fr.int_male'!B2,4)," ",'mod4.fr.int_male'!G2)</f>
         <v xml:space="preserve">-0.0466 </v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="11" t="str">
+      <c r="B4" s="19"/>
+      <c r="C4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mof4.fr_female'!D2,4),")")</f>
         <v>(0.0342)</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod.fr.int_female'!D2,4),")")</f>
         <v>(0.0526)</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mof4.fr_male'!D2,4),")")</f>
         <v>(0.0305)</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod4.fr.int_male'!D2,4),")")</f>
         <v>(0.0432)</v>
       </c>
@@ -12331,43 +13104,43 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A5,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A5,0))</f>
         <v>-0.1295 ***</v>
       </c>
-      <c r="D5" s="7" t="str">
+      <c r="D5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A5,0))</f>
         <v>-0.1964 ***</v>
       </c>
-      <c r="E5" s="10" t="str">
+      <c r="E5" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A5,0))</f>
         <v>-0.0703 ^</v>
       </c>
-      <c r="F5" s="7" t="str">
+      <c r="F5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A5,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A5,0))</f>
         <v xml:space="preserve">-0.0436 </v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A5,0),4),")")</f>
         <v>(0.0352)</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A5,0),4),")")</f>
         <v>(0.054)</v>
       </c>
-      <c r="E6" s="11" t="str">
+      <c r="E6" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A5,0),4),")")</f>
         <v>(0.0372)</v>
       </c>
-      <c r="F6" s="9" t="str">
+      <c r="F6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A5,0),4),")")</f>
         <v>(0.0547)</v>
       </c>
@@ -12377,41 +13150,41 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A7,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A7,0))</f>
         <v>-0.033 ***</v>
       </c>
-      <c r="D7" s="7" t="str">
+      <c r="D7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A7,0))</f>
         <v>-0.0337 ***</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A7,0))</f>
         <v>-0.0567 ***</v>
       </c>
-      <c r="F7" s="7" t="str">
+      <c r="F7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A7,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A7,0))</f>
         <v>-0.057 ***</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="11" t="str">
+      <c r="B8" s="19"/>
+      <c r="C8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A7,0),4),")")</f>
         <v>(0.0071)</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A7,0),4),")")</f>
         <v>(0.0071)</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A7,0),4),")")</f>
         <v>(0.007)</v>
       </c>
-      <c r="F8" s="9" t="str">
+      <c r="F8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A7,0),4),")")</f>
         <v>(0.007)</v>
       </c>
@@ -12421,41 +13194,41 @@
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A9,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A9,0))</f>
         <v>-0.2108 ***</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A9,0))</f>
         <v>-0.2858 ***</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A9,0))</f>
         <v>-0.1494 ***</v>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A9,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A9,0))</f>
         <v>-0.1574 **</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="str">
+      <c r="B10" s="19"/>
+      <c r="C10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A9,0),4),")")</f>
         <v>(0.0401)</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A9,0),4),")")</f>
         <v>(0.0525)</v>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A9,0),4),")")</f>
         <v>(0.0392)</v>
       </c>
-      <c r="F10" s="9" t="str">
+      <c r="F10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A9,0),4),")")</f>
         <v>(0.05)</v>
       </c>
@@ -12465,29 +13238,29 @@
         <f>A9+1</f>
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7" t="str">
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A11,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A11,0))</f>
         <v>0.1647 *</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7" t="str">
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A11,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A11,0))</f>
         <v xml:space="preserve">0.0561 </v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9" t="str">
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A11,0),4),")")</f>
         <v>(0.0763)</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9" t="str">
+      <c r="E12" s="9"/>
+      <c r="F12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A11,0),4),")")</f>
         <v>(0.0679)</v>
       </c>
@@ -12497,29 +13270,29 @@
         <f>A11+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="str">
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A13,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A13,0))</f>
         <v>0.1294 ^</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="str">
+      <c r="E13" s="8"/>
+      <c r="F13" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A13,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A13,0))</f>
         <v xml:space="preserve">-0.0429 </v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9" t="str">
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A13,0),4),")")</f>
         <v>(0.076)</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9" t="str">
+      <c r="E14" s="9"/>
+      <c r="F14" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A13,0),4),")")</f>
         <v>(0.082)</v>
       </c>
@@ -12529,41 +13302,41 @@
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A15,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A15,0))</f>
         <v xml:space="preserve">-0.0217 </v>
       </c>
-      <c r="D15" s="7" t="str">
+      <c r="D15" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A15,0))</f>
         <v xml:space="preserve">-0.0678 </v>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A15,0))</f>
         <v xml:space="preserve">-0.0245 </v>
       </c>
-      <c r="F15" s="7" t="str">
+      <c r="F15" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A15,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A15,0))</f>
         <v xml:space="preserve">-0.0071 </v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="11" t="str">
+      <c r="B16" s="19"/>
+      <c r="C16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A15,0),4),")")</f>
         <v>(0.0434)</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A15,0),4),")")</f>
         <v>(0.0572)</v>
       </c>
-      <c r="E16" s="11" t="str">
+      <c r="E16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A15,0),4),")")</f>
         <v>(0.0415)</v>
       </c>
-      <c r="F16" s="9" t="str">
+      <c r="F16" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A15,0),4),")")</f>
         <v>(0.0599)</v>
       </c>
@@ -12573,29 +13346,29 @@
         <f>A15+1</f>
         <v>7</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7" t="str">
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A17,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A17,0))</f>
         <v xml:space="preserve">0.0988 </v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="str">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A17,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A17,0))</f>
         <v xml:space="preserve">-0.0119 </v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9" t="str">
+      <c r="B18" s="19"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A17,0),4),")")</f>
         <v>(0.092)</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9" t="str">
+      <c r="E18" s="9"/>
+      <c r="F18" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A17,0),4),")")</f>
         <v>(0.0818)</v>
       </c>
@@ -12604,29 +13377,29 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="7" t="str">
+      <c r="C19" s="8"/>
+      <c r="D19" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A19,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A19,0))</f>
         <v xml:space="preserve">0.1018 </v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7" t="str">
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A19,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A19,0))</f>
         <v xml:space="preserve">-0.0548 </v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9" t="str">
+      <c r="B20" s="19"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A19,0),4),")")</f>
         <v>(0.0919)</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9" t="str">
+      <c r="E20" s="9"/>
+      <c r="F20" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A19,0),4),")")</f>
         <v>(0.0934)</v>
       </c>
@@ -12635,41 +13408,41 @@
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A21,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A21,0))</f>
         <v xml:space="preserve">0.0198 </v>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A21,0))</f>
         <v xml:space="preserve">0.0205 </v>
       </c>
-      <c r="E21" s="10" t="str">
+      <c r="E21" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A21,0))</f>
         <v xml:space="preserve">0.072 </v>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A21,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A21,0))</f>
         <v xml:space="preserve">0.0727 </v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="11" t="str">
+      <c r="B22" s="19"/>
+      <c r="C22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A21,0),4),")")</f>
         <v>(0.0405)</v>
       </c>
-      <c r="D22" s="9" t="str">
+      <c r="D22" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A21,0),4),")")</f>
         <v>(0.0404)</v>
       </c>
-      <c r="E22" s="11" t="str">
+      <c r="E22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A21,0),4),")")</f>
         <v>(0.0483)</v>
       </c>
-      <c r="F22" s="9" t="str">
+      <c r="F22" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A21,0),4),")")</f>
         <v>(0.0483)</v>
       </c>
@@ -12679,41 +13452,41 @@
         <f>A21+1</f>
         <v>10</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A23,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A23,0))</f>
         <v>-0.1194 ^</v>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A23,0))</f>
         <v xml:space="preserve">-0.1102 </v>
       </c>
-      <c r="E23" s="10" t="str">
+      <c r="E23" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A23,0))</f>
         <v xml:space="preserve">0.0388 </v>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="F23" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A23,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A23,0))</f>
         <v xml:space="preserve">0.0369 </v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="11" t="str">
+      <c r="B24" s="19"/>
+      <c r="C24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A23,0),4),")")</f>
         <v>(0.0698)</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A23,0),4),")")</f>
         <v>(0.0697)</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A23,0),4),")")</f>
         <v>(0.0894)</v>
       </c>
-      <c r="F24" s="9" t="str">
+      <c r="F24" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A23,0),4),")")</f>
         <v>(0.0894)</v>
       </c>
@@ -12723,41 +13496,41 @@
         <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A25,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A25,0))</f>
         <v xml:space="preserve">-0.013 </v>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A25,0))</f>
         <v xml:space="preserve">-0.0112 </v>
       </c>
-      <c r="E25" s="10" t="str">
+      <c r="E25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A25,0))</f>
         <v xml:space="preserve">0.0073 </v>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A25,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A25,0))</f>
         <v xml:space="preserve">0.0073 </v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="11" t="str">
+      <c r="B26" s="19"/>
+      <c r="C26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A25,0),4),")")</f>
         <v>(0.0171)</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A25,0),4),")")</f>
         <v>(0.0171)</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A25,0),4),")")</f>
         <v>(0.0214)</v>
       </c>
-      <c r="F26" s="9" t="str">
+      <c r="F26" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A25,0),4),")")</f>
         <v>(0.0214)</v>
       </c>
@@ -12767,41 +13540,41 @@
         <f>A25+1</f>
         <v>12</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A27,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A27,0))</f>
         <v>0.0262 ***</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A27,0))</f>
         <v>0.026 ***</v>
       </c>
-      <c r="E27" s="10" t="str">
+      <c r="E27" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A27,0))</f>
         <v xml:space="preserve">0.003 </v>
       </c>
-      <c r="F27" s="7" t="str">
+      <c r="F27" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A27,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A27,0))</f>
         <v xml:space="preserve">0.003 </v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="11" t="str">
+      <c r="B28" s="19"/>
+      <c r="C28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A27,0),4),")")</f>
         <v>(0.0059)</v>
       </c>
-      <c r="D28" s="9" t="str">
+      <c r="D28" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A27,0),4),")")</f>
         <v>(0.0059)</v>
       </c>
-      <c r="E28" s="11" t="str">
+      <c r="E28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A27,0),4),")")</f>
         <v>(0.0049)</v>
       </c>
-      <c r="F28" s="9" t="str">
+      <c r="F28" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A27,0),4),")")</f>
         <v>(0.0049)</v>
       </c>
@@ -12811,41 +13584,41 @@
         <f>A27+1</f>
         <v>13</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A29,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A29,0))</f>
         <v>0.0845 *</v>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A29,0))</f>
         <v>0.08 ^</v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A29,0))</f>
         <v>0.1206 **</v>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A29,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A29,0))</f>
         <v>0.1199 **</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="11" t="str">
+      <c r="B30" s="19"/>
+      <c r="C30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A29,0),4),")")</f>
         <v>(0.0424)</v>
       </c>
-      <c r="D30" s="9" t="str">
+      <c r="D30" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A29,0),4),")")</f>
         <v>(0.0424)</v>
       </c>
-      <c r="E30" s="11" t="str">
+      <c r="E30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A29,0),4),")")</f>
         <v>(0.0381)</v>
       </c>
-      <c r="F30" s="9" t="str">
+      <c r="F30" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A29,0),4),")")</f>
         <v>(0.0381)</v>
       </c>
@@ -12855,41 +13628,41 @@
         <f>A29+1</f>
         <v>14</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="10" t="str">
+      <c r="C31" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A31,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A31,0))</f>
         <v>0.1902 ***</v>
       </c>
-      <c r="D31" s="7" t="str">
+      <c r="D31" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A31,0))</f>
         <v>0.1862 ***</v>
       </c>
-      <c r="E31" s="10" t="str">
+      <c r="E31" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A31,0))</f>
         <v>0.2445 ***</v>
       </c>
-      <c r="F31" s="7" t="str">
+      <c r="F31" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A31,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A31,0))</f>
         <v>0.2433 ***</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="11" t="str">
+      <c r="B32" s="19"/>
+      <c r="C32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A31,0),4),")")</f>
         <v>(0.0447)</v>
       </c>
-      <c r="D32" s="9" t="str">
+      <c r="D32" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A31,0),4),")")</f>
         <v>(0.0447)</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A31,0),4),")")</f>
         <v>(0.0438)</v>
       </c>
-      <c r="F32" s="9" t="str">
+      <c r="F32" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A31,0),4),")")</f>
         <v>(0.0438)</v>
       </c>
@@ -12899,41 +13672,41 @@
         <f>A31+1</f>
         <v>15</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="10" t="str">
+      <c r="C33" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A33,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A33,0))</f>
         <v>0.1178 ^</v>
       </c>
-      <c r="D33" s="7" t="str">
+      <c r="D33" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A33,0))</f>
         <v>0.1133 ^</v>
       </c>
-      <c r="E33" s="10" t="str">
+      <c r="E33" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A33,0))</f>
         <v>0.1801 **</v>
       </c>
-      <c r="F33" s="7" t="str">
+      <c r="F33" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A33,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A33,0))</f>
         <v>0.1809 **</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="11" t="str">
+      <c r="B34" s="19"/>
+      <c r="C34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A33,0),4),")")</f>
         <v>(0.0654)</v>
       </c>
-      <c r="D34" s="9" t="str">
+      <c r="D34" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A33,0),4),")")</f>
         <v>(0.0654)</v>
       </c>
-      <c r="E34" s="11" t="str">
+      <c r="E34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A33,0),4),")")</f>
         <v>(0.068)</v>
       </c>
-      <c r="F34" s="9" t="str">
+      <c r="F34" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A33,0),4),")")</f>
         <v>(0.068)</v>
       </c>
@@ -12943,41 +13716,41 @@
         <f>A33+1</f>
         <v>16</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A35,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A35,0))</f>
         <v xml:space="preserve">-0.088 </v>
       </c>
-      <c r="D35" s="7" t="str">
+      <c r="D35" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A35,0))</f>
         <v xml:space="preserve">-0.0999 </v>
       </c>
-      <c r="E35" s="10" t="str">
+      <c r="E35" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A35,0))</f>
         <v xml:space="preserve">0.1285 </v>
       </c>
-      <c r="F35" s="7" t="str">
+      <c r="F35" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A35,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A35,0))</f>
         <v xml:space="preserve">0.1303 </v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="11" t="str">
+      <c r="B36" s="19"/>
+      <c r="C36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A35,0),4),")")</f>
         <v>(0.0989)</v>
       </c>
-      <c r="D36" s="9" t="str">
+      <c r="D36" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A35,0),4),")")</f>
         <v>(0.099)</v>
       </c>
-      <c r="E36" s="11" t="str">
+      <c r="E36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A35,0),4),")")</f>
         <v>(0.1101)</v>
       </c>
-      <c r="F36" s="9" t="str">
+      <c r="F36" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A35,0),4),")")</f>
         <v>(0.1102)</v>
       </c>
@@ -12987,41 +13760,41 @@
         <f>A35+1</f>
         <v>17</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="10" t="str">
+      <c r="C37" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A37,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A37,0))</f>
         <v>0.0049 ***</v>
       </c>
-      <c r="D37" s="7" t="str">
+      <c r="D37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A37,0))</f>
         <v>0.0049 ***</v>
       </c>
-      <c r="E37" s="10" t="str">
+      <c r="E37" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A37,0))</f>
         <v>0.0039 ***</v>
       </c>
-      <c r="F37" s="7" t="str">
+      <c r="F37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A37,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A37,0))</f>
         <v>0.0039 ***</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="11" t="str">
+      <c r="B38" s="19"/>
+      <c r="C38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A37,0),4),")")</f>
         <v>(0.0007)</v>
       </c>
-      <c r="D38" s="9" t="str">
+      <c r="D38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A37,0),4),")")</f>
         <v>(0.0007)</v>
       </c>
-      <c r="E38" s="11" t="str">
+      <c r="E38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A37,0),4),")")</f>
         <v>(0.0006)</v>
       </c>
-      <c r="F38" s="9" t="str">
+      <c r="F38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A37,0),4),")")</f>
         <v>(0.0006)</v>
       </c>
@@ -13031,41 +13804,41 @@
         <f>A37+1</f>
         <v>18</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="10" t="str">
+      <c r="C39" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A39,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A39,0))</f>
         <v xml:space="preserve">0.0004 </v>
       </c>
-      <c r="D39" s="7" t="str">
+      <c r="D39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A39,0))</f>
         <v xml:space="preserve">0.0004 </v>
       </c>
-      <c r="E39" s="10" t="str">
+      <c r="E39" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A39,0))</f>
         <v xml:space="preserve">0.0001 </v>
       </c>
-      <c r="F39" s="7" t="str">
+      <c r="F39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A39,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A39,0))</f>
         <v xml:space="preserve">0.0001 </v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="11" t="str">
+      <c r="B40" s="19"/>
+      <c r="C40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A39,0),4),")")</f>
         <v>(0.0003)</v>
       </c>
-      <c r="D40" s="9" t="str">
+      <c r="D40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A39,0),4),")")</f>
         <v>(0.0003)</v>
       </c>
-      <c r="E40" s="11" t="str">
+      <c r="E40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A39,0),4),")")</f>
         <v>(0.0003)</v>
       </c>
-      <c r="F40" s="9" t="str">
+      <c r="F40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A39,0),4),")")</f>
         <v>(0.0003)</v>
       </c>
@@ -13075,41 +13848,41 @@
         <f>A39+1</f>
         <v>19</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="10" t="str">
+      <c r="C41" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A41,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A41,0))</f>
         <v xml:space="preserve">0.0002 </v>
       </c>
-      <c r="D41" s="7" t="str">
+      <c r="D41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A41,0))</f>
         <v xml:space="preserve">0.0002 </v>
       </c>
-      <c r="E41" s="10" t="str">
+      <c r="E41" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A41,0))</f>
         <v>0.0006 ***</v>
       </c>
-      <c r="F41" s="7" t="str">
+      <c r="F41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A41,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A41,0))</f>
         <v>0.0006 ***</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="11" t="str">
+      <c r="B42" s="19"/>
+      <c r="C42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A41,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
-      <c r="D42" s="9" t="str">
+      <c r="D42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A41,0),4),")")</f>
         <v>(0.0002)</v>
       </c>
-      <c r="E42" s="11" t="str">
+      <c r="E42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A41,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
-      <c r="F42" s="9" t="str">
+      <c r="F42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A41,0),4),")")</f>
         <v>(0.0001)</v>
       </c>
@@ -13119,41 +13892,41 @@
         <f>A41+1</f>
         <v>20</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="10" t="str">
+      <c r="C43" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A43,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A43,0))</f>
         <v xml:space="preserve">0.002 </v>
       </c>
-      <c r="D43" s="7" t="str">
+      <c r="D43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A43,0))</f>
         <v xml:space="preserve">0.0019 </v>
       </c>
-      <c r="E43" s="10" t="str">
+      <c r="E43" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A43,0))</f>
         <v xml:space="preserve">-0.0128 </v>
       </c>
-      <c r="F43" s="7" t="str">
+      <c r="F43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A43,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A43,0))</f>
         <v xml:space="preserve">-0.0128 </v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="11" t="str">
+      <c r="B44" s="19"/>
+      <c r="C44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A43,0),4),")")</f>
         <v>(0.0292)</v>
       </c>
-      <c r="D44" s="9" t="str">
+      <c r="D44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A43,0),4),")")</f>
         <v>(0.0291)</v>
       </c>
-      <c r="E44" s="11" t="str">
+      <c r="E44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A43,0),4),")")</f>
         <v>(0.0297)</v>
       </c>
-      <c r="F44" s="9" t="str">
+      <c r="F44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A43,0),4),")")</f>
         <v>(0.0297)</v>
       </c>
@@ -13163,41 +13936,41 @@
         <f>A43+1</f>
         <v>21</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="10" t="str">
+      <c r="C45" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A45,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A45,0))</f>
         <v xml:space="preserve">0.0443 </v>
       </c>
-      <c r="D45" s="7" t="str">
+      <c r="D45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A45,0))</f>
         <v xml:space="preserve">0.0424 </v>
       </c>
-      <c r="E45" s="10" t="str">
+      <c r="E45" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A45,0))</f>
         <v xml:space="preserve">-0.0438 </v>
       </c>
-      <c r="F45" s="7" t="str">
+      <c r="F45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A45,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A45,0))</f>
         <v xml:space="preserve">-0.0435 </v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="11" t="str">
+      <c r="B46" s="19"/>
+      <c r="C46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A45,0),4),")")</f>
         <v>(0.043)</v>
       </c>
-      <c r="D46" s="9" t="str">
+      <c r="D46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A45,0),4),")")</f>
         <v>(0.043)</v>
       </c>
-      <c r="E46" s="11" t="str">
+      <c r="E46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A45,0),4),")")</f>
         <v>(0.046)</v>
       </c>
-      <c r="F46" s="9" t="str">
+      <c r="F46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A45,0),4),")")</f>
         <v>(0.046)</v>
       </c>
@@ -13207,41 +13980,41 @@
         <f>A45+1</f>
         <v>22</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="10" t="str">
+      <c r="C47" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A47,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A47,0))</f>
         <v xml:space="preserve">-0.0489 </v>
       </c>
-      <c r="D47" s="7" t="str">
+      <c r="D47" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A47,0))</f>
         <v xml:space="preserve">-0.0497 </v>
       </c>
-      <c r="E47" s="10" t="str">
+      <c r="E47" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A47,0))</f>
         <v>-0.148 ***</v>
       </c>
-      <c r="F47" s="7" t="str">
+      <c r="F47" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A47,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A47,0))</f>
         <v>-0.1477 ***</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="11" t="str">
+      <c r="B48" s="19"/>
+      <c r="C48" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A47,0),4),")")</f>
         <v>(0.0476)</v>
       </c>
-      <c r="D48" s="9" t="str">
+      <c r="D48" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A47,0),4),")")</f>
         <v>(0.0475)</v>
       </c>
-      <c r="E48" s="11" t="str">
+      <c r="E48" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A47,0),4),")")</f>
         <v>(0.0443)</v>
       </c>
-      <c r="F48" s="9" t="str">
+      <c r="F48" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A47,0),4),")")</f>
         <v>(0.0443)</v>
       </c>
@@ -13251,41 +14024,41 @@
         <f>A47+1</f>
         <v>23</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="10" t="str">
+      <c r="C49" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A49,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A49,0))</f>
         <v>-0.1972 ***</v>
       </c>
-      <c r="D49" s="7" t="str">
+      <c r="D49" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A49,0))</f>
         <v>-0.197 ***</v>
       </c>
-      <c r="E49" s="10" t="str">
+      <c r="E49" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A49,0))</f>
         <v>-0.2408 ***</v>
       </c>
-      <c r="F49" s="7" t="str">
+      <c r="F49" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A49,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A49,0))</f>
         <v>-0.2411 ***</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="11" t="str">
+      <c r="B50" s="19"/>
+      <c r="C50" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A49,0),4),")")</f>
         <v>(0.0521)</v>
       </c>
-      <c r="D50" s="9" t="str">
+      <c r="D50" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A49,0),4),")")</f>
         <v>(0.052)</v>
       </c>
-      <c r="E50" s="11" t="str">
+      <c r="E50" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A49,0),4),")")</f>
         <v>(0.0488)</v>
       </c>
-      <c r="F50" s="9" t="str">
+      <c r="F50" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A49,0),4),")")</f>
         <v>(0.0488)</v>
       </c>
@@ -13295,41 +14068,41 @@
         <f>A49+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="10" t="str">
+      <c r="C51" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A51,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A51,0))</f>
         <v xml:space="preserve">-0.0411 </v>
       </c>
-      <c r="D51" s="7" t="str">
+      <c r="D51" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A51,0))</f>
         <v xml:space="preserve">-0.0416 </v>
       </c>
-      <c r="E51" s="10" t="str">
+      <c r="E51" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A51,0))</f>
         <v>-0.132 **</v>
       </c>
-      <c r="F51" s="7" t="str">
+      <c r="F51" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A51,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A51,0))</f>
         <v>-0.1318 **</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="11" t="str">
+      <c r="B52" s="19"/>
+      <c r="C52" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A51,0),4),")")</f>
         <v>(0.0426)</v>
       </c>
-      <c r="D52" s="9" t="str">
+      <c r="D52" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A51,0),4),")")</f>
         <v>(0.0425)</v>
       </c>
-      <c r="E52" s="11" t="str">
+      <c r="E52" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A51,0),4),")")</f>
         <v>(0.0412)</v>
       </c>
-      <c r="F52" s="9" t="str">
+      <c r="F52" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A51,0),4),")")</f>
         <v>(0.0412)</v>
       </c>
@@ -13339,41 +14112,41 @@
         <f>A51+1</f>
         <v>25</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="10" t="str">
+      <c r="C53" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A53,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A53,0))</f>
         <v>-0.0736 ***</v>
       </c>
-      <c r="D53" s="7" t="str">
+      <c r="D53" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A53,0))</f>
         <v>-0.0739 ***</v>
       </c>
-      <c r="E53" s="10" t="str">
+      <c r="E53" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A53,0))</f>
         <v>-0.0806 ***</v>
       </c>
-      <c r="F53" s="7" t="str">
+      <c r="F53" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A53,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A53,0))</f>
         <v>-0.0806 ***</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="11" t="str">
+      <c r="B54" s="19"/>
+      <c r="C54" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A53,0),4),")")</f>
         <v>(0.0096)</v>
       </c>
-      <c r="D54" s="9" t="str">
+      <c r="D54" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A53,0),4),")")</f>
         <v>(0.0096)</v>
       </c>
-      <c r="E54" s="11" t="str">
+      <c r="E54" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A53,0),4),")")</f>
         <v>(0.0091)</v>
       </c>
-      <c r="F54" s="9" t="str">
+      <c r="F54" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A53,0),4),")")</f>
         <v>(0.0091)</v>
       </c>
@@ -13383,41 +14156,41 @@
         <f>A53+1</f>
         <v>26</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="10" t="str">
+      <c r="C55" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A55,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A55,0))</f>
         <v>-0.0627 ***</v>
       </c>
-      <c r="D55" s="7" t="str">
+      <c r="D55" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A55,0))</f>
         <v>-0.0629 ***</v>
       </c>
-      <c r="E55" s="10" t="str">
+      <c r="E55" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A55,0))</f>
         <v>-0.0505 ***</v>
       </c>
-      <c r="F55" s="7" t="str">
+      <c r="F55" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A55,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A55,0))</f>
         <v>-0.0504 ***</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="11" t="str">
+      <c r="B56" s="19"/>
+      <c r="C56" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A55,0),4),")")</f>
         <v>(0.0069)</v>
       </c>
-      <c r="D56" s="9" t="str">
+      <c r="D56" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A55,0),4),")")</f>
         <v>(0.0069)</v>
       </c>
-      <c r="E56" s="11" t="str">
+      <c r="E56" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A55,0),4),")")</f>
         <v>(0.0065)</v>
       </c>
-      <c r="F56" s="9" t="str">
+      <c r="F56" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A55,0),4),")")</f>
         <v>(0.0065)</v>
       </c>
@@ -13427,41 +14200,41 @@
         <f>A55+1</f>
         <v>27</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="10" t="str">
+      <c r="C57" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A57,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A57,0))</f>
         <v xml:space="preserve">0.009 </v>
       </c>
-      <c r="D57" s="7" t="str">
+      <c r="D57" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A57,0))</f>
         <v xml:space="preserve">0.0194 </v>
       </c>
-      <c r="E57" s="10" t="str">
+      <c r="E57" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A57,0))</f>
         <v>-0.4354 **</v>
       </c>
-      <c r="F57" s="7" t="str">
+      <c r="F57" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A57,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A57,0))</f>
         <v>-0.4284 **</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="11" t="str">
+      <c r="B58" s="19"/>
+      <c r="C58" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A57,0),4),")")</f>
         <v>(0.1478)</v>
       </c>
-      <c r="D58" s="9" t="str">
+      <c r="D58" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A57,0),4),")")</f>
         <v>(0.1478)</v>
       </c>
-      <c r="E58" s="11" t="str">
+      <c r="E58" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A57,0),4),")")</f>
         <v>(0.1465)</v>
       </c>
-      <c r="F58" s="9" t="str">
+      <c r="F58" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A57,0),4),")")</f>
         <v>(0.1465)</v>
       </c>
@@ -13471,41 +14244,41 @@
         <f>A57+1</f>
         <v>28</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="10" t="str">
+      <c r="C59" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A59,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A59,0))</f>
         <v>-0.1815 ^</v>
       </c>
-      <c r="D59" s="7" t="str">
+      <c r="D59" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A59,0))</f>
         <v>-0.1775 ^</v>
       </c>
-      <c r="E59" s="10" t="str">
+      <c r="E59" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A59,0))</f>
         <v>-0.2343 **</v>
       </c>
-      <c r="F59" s="7" t="str">
+      <c r="F59" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A59,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A59,0))</f>
         <v>-0.2331 **</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="11" t="str">
+      <c r="B60" s="19"/>
+      <c r="C60" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A59,0),4),")")</f>
         <v>(0.0945)</v>
       </c>
-      <c r="D60" s="9" t="str">
+      <c r="D60" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A59,0),4),")")</f>
         <v>(0.0944)</v>
       </c>
-      <c r="E60" s="11" t="str">
+      <c r="E60" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A59,0),4),")")</f>
         <v>(0.0747)</v>
       </c>
-      <c r="F60" s="9" t="str">
+      <c r="F60" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A59,0),4),")")</f>
         <v>(0.0747)</v>
       </c>
@@ -13515,41 +14288,41 @@
         <f>A59+1</f>
         <v>29</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="10" t="str">
+      <c r="C61" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A61,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A61,0))</f>
         <v xml:space="preserve">0.1652 </v>
       </c>
-      <c r="D61" s="7" t="str">
+      <c r="D61" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A61,0))</f>
         <v xml:space="preserve">0.1571 </v>
       </c>
-      <c r="E61" s="10" t="str">
+      <c r="E61" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A61,0))</f>
         <v xml:space="preserve">0.1614 </v>
       </c>
-      <c r="F61" s="7" t="str">
+      <c r="F61" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A61,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A61,0))</f>
         <v xml:space="preserve">0.1602 </v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="11" t="str">
+      <c r="B62" s="19"/>
+      <c r="C62" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A61,0),4),")")</f>
         <v>(0.3999)</v>
       </c>
-      <c r="D62" s="9" t="str">
+      <c r="D62" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A61,0),4),")")</f>
         <v>(0.3998)</v>
       </c>
-      <c r="E62" s="11" t="str">
+      <c r="E62" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A61,0),4),")")</f>
         <v>(0.3875)</v>
       </c>
-      <c r="F62" s="9" t="str">
+      <c r="F62" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A61,0),4),")")</f>
         <v>(0.3872)</v>
       </c>
@@ -13559,41 +14332,41 @@
         <f>A61+1</f>
         <v>30</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="10" t="str">
+      <c r="C63" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A63,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A63,0))</f>
         <v>-0.1448 ^</v>
       </c>
-      <c r="D63" s="7" t="str">
+      <c r="D63" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A63,0))</f>
         <v>-0.1412 ^</v>
       </c>
-      <c r="E63" s="10" t="str">
+      <c r="E63" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A63,0))</f>
         <v xml:space="preserve">-0.1135 </v>
       </c>
-      <c r="F63" s="7" t="str">
+      <c r="F63" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A63,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A63,0))</f>
         <v xml:space="preserve">-0.1126 </v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="11" t="str">
+      <c r="B64" s="19"/>
+      <c r="C64" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A63,0),4),")")</f>
         <v>(0.0855)</v>
       </c>
-      <c r="D64" s="9" t="str">
+      <c r="D64" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A63,0),4),")")</f>
         <v>(0.0854)</v>
       </c>
-      <c r="E64" s="11" t="str">
+      <c r="E64" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A63,0),4),")")</f>
         <v>(0.0765)</v>
       </c>
-      <c r="F64" s="9" t="str">
+      <c r="F64" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A63,0),4),")")</f>
         <v>(0.0765)</v>
       </c>
@@ -13603,102 +14376,126 @@
         <f>A63+1</f>
         <v>31</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="10" t="str">
+      <c r="C65" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_female'!$B$2,'Table 4'!$A65,0),4)," ",OFFSET('mof4.fr_female'!$G$2,'Table 4'!$A65,0))</f>
         <v xml:space="preserve">0.0574 </v>
       </c>
-      <c r="D65" s="7" t="str">
+      <c r="D65" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod.fr.int_female'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mod.fr.int_female'!$G$2,A65,0))</f>
         <v xml:space="preserve">0.0563 </v>
       </c>
-      <c r="E65" s="10" t="str">
+      <c r="E65" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mof4.fr_male'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mof4.fr_male'!$G$2,'Table 4'!A65,0))</f>
         <v xml:space="preserve">-0.0025 </v>
       </c>
-      <c r="F65" s="7" t="str">
+      <c r="F65" s="6" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod4.fr.int_male'!$B$2,'Table 4'!A65,0),4)," ",OFFSET('mod4.fr.int_male'!$G$2,'Table 4'!A65,0))</f>
         <v xml:space="preserve">-0.003 </v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="11" t="str">
+      <c r="B66" s="19"/>
+      <c r="C66" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A65,0),4),")")</f>
         <v>(0.112)</v>
       </c>
-      <c r="D66" s="9" t="str">
+      <c r="D66" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A65,0),4),")")</f>
         <v>(0.112)</v>
       </c>
-      <c r="E66" s="11" t="str">
+      <c r="E66" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_male'!$D$2,'Table 4'!A65,0),4),")")</f>
         <v>(0.0829)</v>
       </c>
-      <c r="F66" s="9" t="str">
+      <c r="F66" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod4.fr.int_male'!$D$2,'Table 4'!A65,0),4),")")</f>
         <v>(0.0829)</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="11">
         <f>ROUND('mof4.fr_female'!D75,4)</f>
         <v>0.3805</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12">
         <f>ROUND('mod.fr.int_female'!D74,4)</f>
         <v>0.37809999999999999</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="11">
         <f>ROUND('mof4.fr_male'!D74,4)</f>
         <v>0.378</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="12">
         <f>ROUND('mod4.fr.int_male'!D74,4)</f>
         <v>0.37740000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="B63:B64"/>
@@ -13709,30 +14506,6 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13740,15 +14513,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E3F3A8-4A27-4DF6-830E-817922FF26EF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -13765,50 +14538,86 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>-0.11017</v>
+        <v>-0.13381000000000001</v>
       </c>
       <c r="C2">
-        <v>0.89568000000000003</v>
+        <v>0.87475000000000003</v>
       </c>
       <c r="D2">
-        <v>2.2780000000000002E-2</v>
+        <v>1.9050000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>-4.8369999999999997</v>
+        <v>-7.024</v>
       </c>
       <c r="F2" s="2">
-        <v>1.3200000000000001E-6</v>
+        <v>2.1600000000000001E-12</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.1368</v>
+        <v>-0.21079999999999999</v>
       </c>
       <c r="C3">
-        <v>0.87214000000000003</v>
+        <v>0.80993000000000004</v>
       </c>
       <c r="D3">
-        <v>2.3310000000000001E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="E3">
-        <v>-5.8680000000000003</v>
+        <v>-10.648999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>4.3999999999999997E-9</v>
+        <v>2E-16</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>-0.11609999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>-0.13381000000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="I16">
+        <f>(D16-F16)/(SQRT((E16^2)+(G16^2)))</f>
+        <v>0.6603076888166306</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>-0.20857999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.9359999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>-0.21079999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I17">
+        <f>(D17-F17)/(SQRT((E17^2)+(G17^2)))</f>
+        <v>8.0167414404494333E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13821,7 +14630,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" activeCellId="1" sqref="B2:B3 D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13926,15 +14735,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6439F6-6D56-4ABA-8869-3E4085BA21A1}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -13951,56 +14763,125 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>-0.14171900000000001</v>
+        <v>-0.18078549999999999</v>
       </c>
       <c r="C2">
-        <v>0.86786509999999994</v>
+        <v>0.83461439999999998</v>
       </c>
       <c r="D2">
-        <v>2.811431E-2</v>
+        <v>2.3038090000000001E-2</v>
       </c>
       <c r="E2">
-        <v>-5.04</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4.5999999999999999E-7</v>
+        <v>-7.85</v>
+      </c>
+      <c r="F2" s="22">
+        <v>4.1999999999999996E-15</v>
       </c>
       <c r="G2" t="str">
         <f>IF(F2&lt;0.001,"***",IF(F2&lt;0.01,"**",IF(F2&lt;0.05,"*",IF(F2&lt;0.1,"^",""))))</f>
         <v>***</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.203879</v>
+        <v>-0.29811470000000001</v>
       </c>
       <c r="C3">
-        <v>0.81556099999999998</v>
+        <v>0.74221619999999999</v>
       </c>
       <c r="D3">
-        <v>3.103057E-2</v>
+        <v>2.582899E-2</v>
       </c>
       <c r="E3">
-        <v>-6.57</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5.0000000000000002E-11</v>
+        <v>-11.54</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0</v>
       </c>
       <c r="G3" t="str">
         <f>IF(F3&lt;0.001,"***",IF(F3&lt;0.01,"**",IF(F3&lt;0.05,"*",IF(F3&lt;0.1,"^",""))))</f>
         <v>***</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0.44582260000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.19875780000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-0.1537723</v>
+      </c>
+      <c r="E15">
+        <v>2.3054990000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>-0.18078549999999999</v>
+      </c>
+      <c r="G15">
+        <v>2.3038090000000001E-2</v>
+      </c>
+      <c r="I15">
+        <f>(D15-F15)/(SQRT((E15^2)+(G15^2)))</f>
+        <v>0.82881055540845905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>-0.29891279999999998</v>
+      </c>
+      <c r="E16">
+        <v>2.549481E-2</v>
+      </c>
+      <c r="F16">
+        <v>-0.29811470000000001</v>
+      </c>
+      <c r="G16">
+        <v>2.582899E-2</v>
+      </c>
+      <c r="I16">
+        <f>(D16-F16)/(SQRT((E16^2)+(G16^2)))</f>
+        <v>-2.199096557810773E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14008,144 +14889,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8997CE3B-0399-4471-BD7F-139B81223C98}">
   <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1'!B2,4)," ",'mod1'!G2)</f>
         <v>-0.1161 ***</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L!B2,4)," ",mod1L!G2)</f>
-        <v>-0.1102 ***</v>
-      </c>
-      <c r="D3" s="10" t="str">
+        <v>-0.1338 ***</v>
+      </c>
+      <c r="D3" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1.fr'!B2,4)," ",'mod1.fr'!G2)</f>
         <v>-0.1538 ***</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L.fr!B2,4)," ",mod1L.fr!G2)</f>
-        <v>-0.1417 ***</v>
+        <v>-0.1808 ***</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1'!D2,4),")")</f>
         <v>(0.0189)</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L!D2,4),")")</f>
-        <v>(0.0228)</v>
-      </c>
-      <c r="D4" s="11" t="str">
+        <v>(0.0191)</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1.fr'!D2,4),")")</f>
         <v>(0.0231)</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L.fr!D2,4),")")</f>
-        <v>(0.0281)</v>
+        <v>(0.023)</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1'!B3,4)," ",'mod1'!G3)</f>
         <v>-0.2086 ***</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L!B3,4)," ",mod1L!G3)</f>
-        <v>-0.1368 ***</v>
-      </c>
-      <c r="D5" s="10" t="str">
+        <v>-0.2108 ***</v>
+      </c>
+      <c r="D5" s="8" t="str">
         <f>_xlfn.CONCAT(ROUND('mod1.fr'!B3,4)," ",'mod1.fr'!G3)</f>
         <v>-0.2989 ***</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="6" t="str">
         <f>_xlfn.CONCAT(ROUND(mod1L.fr!B3,4)," ",mod1L.fr!G3)</f>
-        <v>-0.2039 ***</v>
+        <v>-0.2981 ***</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="str">
+      <c r="A6" s="19"/>
+      <c r="B6" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1'!D3,4),")")</f>
         <v>(0.0194)</v>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L!D3,4),")")</f>
-        <v>(0.0233)</v>
-      </c>
-      <c r="D6" s="11" t="str">
+        <v>(0.0198)</v>
+      </c>
+      <c r="D6" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1.fr'!D3,4),")")</f>
         <v>(0.0255)</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="7" t="str">
         <f>_xlfn.CONCAT("(",ROUND(mod1L.fr!D3,4),")")</f>
-        <v>(0.031)</v>
+        <v>(0.0258)</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17">
         <f>ROUND('mod1.fr'!D6,4)</f>
         <v>0.45190000000000002</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="17">
+        <f>ROUND(mod1L.fr!E6,4)</f>
+        <v>0.44579999999999997</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
+      <c r="B8" s="24">
+        <v>16210</v>
+      </c>
+      <c r="C8" s="24">
+        <v>15800</v>
+      </c>
+      <c r="D8" s="24">
+        <v>16210</v>
+      </c>
+      <c r="E8" s="24">
+        <v>15800</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
+      <c r="B9" s="25">
+        <v>281732</v>
+      </c>
+      <c r="C9" s="25">
+        <v>273790.5</v>
+      </c>
+      <c r="D9" s="25">
+        <v>280616.7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>272736</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="25">
+        <v>281747.40000000002</v>
+      </c>
+      <c r="C10" s="25">
+        <v>273805.8</v>
+      </c>
+      <c r="D10" s="25">
+        <v>293503.59999999998</v>
+      </c>
+      <c r="E10" s="25">
+        <v>285107.3</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
+      </c>
+      <c r="B11" s="25">
+        <v>-140864</v>
+      </c>
+      <c r="C11" s="25">
+        <v>-136893.20000000001</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-138633.29999999999</v>
+      </c>
+      <c r="E11" s="25">
+        <v>-134754.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28">
+        <v>2.5160719999999998E-106</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2.7727630000000001E-101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14698,7 +15643,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15285,6 +16230,619 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4667134B-CC32-4797-AC24-588F553B59E7}">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-6.2278405699999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.93962129999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.2914526399999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>-2.72</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2&lt;0.001,"***",IF(F2&lt;0.01,"**",IF(F2&lt;0.05,"*",IF(F2&lt;0.1,"^",""))))</f>
+        <v>**</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.1213656655</v>
+      </c>
+      <c r="C3">
+        <v>0.88571</v>
+      </c>
+      <c r="D3">
+        <v>2.6057200199999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>-4.66</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G4" si="0">IF(F3&lt;0.001,"***",IF(F3&lt;0.01,"**",IF(F3&lt;0.05,"*",IF(F3&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.8902801E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.0713321</v>
+      </c>
+      <c r="D4">
+        <v>2.2079330899999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>**</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-6.8568688000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.93372929999999998</v>
+      </c>
+      <c r="D5">
+        <v>4.4894256000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>-15.27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(F6&lt;0.001,"***",IF(F6&lt;0.01,"**",IF(F6&lt;0.05,"*",IF(F6&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.20445268829999999</v>
+      </c>
+      <c r="C6">
+        <v>0.81509330000000002</v>
+      </c>
+      <c r="D6">
+        <v>2.8497695300000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>-7.17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.3000000000000002E-13</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(F7&lt;0.001,"***",IF(F7&lt;0.01,"**",IF(F7&lt;0.05,"*",IF(F7&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-2.0242948600000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.97996059999999996</v>
+      </c>
+      <c r="D7">
+        <v>3.0609930300000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>-0.66</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(F8&lt;0.001,"***",IF(F8&lt;0.01,"**",IF(F8&lt;0.05,"*",IF(F8&lt;0.1,"^",""))))</f>
+        <v>^</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.67235117E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.0583631</v>
+      </c>
+      <c r="D8">
+        <v>3.0909272200000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.84</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(F9&lt;0.001,"***",IF(F9&lt;0.01,"**",IF(F9&lt;0.05,"*",IF(F9&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-7.7639575299999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.92529790000000001</v>
+      </c>
+      <c r="D9">
+        <v>5.5077986500000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>-1.41</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(F14&lt;0.001,"***",IF(F14&lt;0.01,"**",IF(F14&lt;0.05,"*",IF(F14&lt;0.1,"^",""))))</f>
+        <v>*</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-1.3086644999999999E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.99869220000000003</v>
+      </c>
+      <c r="D10">
+        <v>1.32985623E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(F15&lt;0.001,"***",IF(F15&lt;0.01,"**",IF(F15&lt;0.05,"*",IF(F15&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.1880060600000001E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.0119509</v>
+      </c>
+      <c r="D11">
+        <v>3.8413064000000002E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.09</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(F12&lt;0.001,"***",IF(F12&lt;0.01,"**",IF(F12&lt;0.05,"*",IF(F12&lt;0.1,"^",""))))</f>
+        <v>*</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.0785915699999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.0626713999999999</v>
+      </c>
+      <c r="D12">
+        <v>2.9395538499999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(F13&lt;0.001,"***",IF(F13&lt;0.01,"**",IF(F13&lt;0.05,"*",IF(F13&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.17702385339999999</v>
+      </c>
+      <c r="C13">
+        <v>1.1936595999999999</v>
+      </c>
+      <c r="D13">
+        <v>3.2394899900000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>5.46</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.6000000000000002E-8</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(F5&lt;0.001,"***",IF(F5&lt;0.01,"**",IF(F5&lt;0.05,"*",IF(F5&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.1004863902</v>
+      </c>
+      <c r="C14">
+        <v>1.1057086</v>
+      </c>
+      <c r="D14">
+        <v>4.7202009199999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(F10&lt;0.001,"***",IF(F10&lt;0.01,"**",IF(F10&lt;0.05,"*",IF(F10&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-1.5271320499999999E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.98484470000000002</v>
+      </c>
+      <c r="D15">
+        <v>7.3063751999999996E-2</v>
+      </c>
+      <c r="E15">
+        <v>-0.21</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(F11&lt;0.001,"***",IF(F11&lt;0.01,"**",IF(F11&lt;0.05,"*",IF(F11&lt;0.1,"^",""))))</f>
+        <v>**</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4.1123968999999998E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.0041209</v>
+      </c>
+      <c r="D16">
+        <v>4.8344909999999998E-4</v>
+      </c>
+      <c r="E16">
+        <v>8.51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(F16&lt;0.001,"***",IF(F16&lt;0.01,"**",IF(F16&lt;0.05,"*",IF(F16&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-1.2577511999999999E-3</v>
+      </c>
+      <c r="C17">
+        <v>0.99874300000000005</v>
+      </c>
+      <c r="D17">
+        <v>1.8733749999999999E-4</v>
+      </c>
+      <c r="E17">
+        <v>-6.71</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.8999999999999999E-11</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(F17&lt;0.001,"***",IF(F17&lt;0.01,"**",IF(F17&lt;0.05,"*",IF(F17&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.4844829999999999E-4</v>
+      </c>
+      <c r="C18">
+        <v>1.0001485000000001</v>
+      </c>
+      <c r="D18">
+        <v>1.089263E-4</v>
+      </c>
+      <c r="E18">
+        <v>1.36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(F18&lt;0.001,"***",IF(F18&lt;0.01,"**",IF(F18&lt;0.05,"*",IF(F18&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1.27815115E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.98729979999999995</v>
+      </c>
+      <c r="D19">
+        <v>2.1091950599999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>-0.61</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(F19&lt;0.001,"***",IF(F19&lt;0.01,"**",IF(F19&lt;0.05,"*",IF(F19&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-1.4863102099999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.98524679999999998</v>
+      </c>
+      <c r="D20">
+        <v>3.1686651099999998E-2</v>
+      </c>
+      <c r="E20">
+        <v>-0.47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(F20&lt;0.001,"***",IF(F20&lt;0.01,"**",IF(F20&lt;0.05,"*",IF(F20&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-6.1140963100000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.94069060000000004</v>
+      </c>
+      <c r="D21">
+        <v>3.2899478199999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>-1.86</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(F21&lt;0.001,"***",IF(F21&lt;0.01,"**",IF(F21&lt;0.05,"*",IF(F21&lt;0.1,"^",""))))</f>
+        <v>^</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-0.15551543200000001</v>
+      </c>
+      <c r="C22">
+        <v>0.85597389999999995</v>
+      </c>
+      <c r="D22">
+        <v>3.59015055E-2</v>
+      </c>
+      <c r="E22">
+        <v>-4.33</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(F22&lt;0.001,"***",IF(F22&lt;0.01,"**",IF(F22&lt;0.05,"*",IF(F22&lt;0.1,"^",""))))</f>
+        <v>***</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-4.3761805899999999E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.95718190000000003</v>
+      </c>
+      <c r="D23">
+        <v>2.97146987E-2</v>
+      </c>
+      <c r="E23">
+        <v>-1.47</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(F23&lt;0.001,"***",IF(F23&lt;0.01,"**",IF(F23&lt;0.05,"*",IF(F23&lt;0.1,"^",""))))</f>
+        <v/>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B187B1CC-4AD7-4F01-92CC-CD9E88D84BA2}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -15940,739 +17498,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91388D41-0987-4BB4-86EF-62169CCBD7BE}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>-4.0591311900000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.96022149999999995</v>
-      </c>
-      <c r="D2">
-        <v>2.2629667400000001E-2</v>
-      </c>
-      <c r="E2">
-        <v>-1.79</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(F2&lt;0.001,"***",IF(F2&lt;0.01,"**",IF(F2&lt;0.05,"*",IF(F2&lt;0.1,"^",""))))</f>
-        <v>^</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>-0.11308718249999999</v>
-      </c>
-      <c r="C3">
-        <v>0.8930728</v>
-      </c>
-      <c r="D3">
-        <v>2.5387038000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>-4.45</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8.3999999999999992E-6</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G29" si="0">IF(F3&lt;0.001,"***",IF(F3&lt;0.01,"**",IF(F3&lt;0.05,"*",IF(F3&lt;0.1,"^",""))))</f>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>6.3816808099999997E-2</v>
-      </c>
-      <c r="C4">
-        <v>1.0658970999999999</v>
-      </c>
-      <c r="D4">
-        <v>2.16067125E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.95</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>-4.0862860199999997E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.95996079999999995</v>
-      </c>
-      <c r="D5">
-        <v>4.9339748000000001E-3</v>
-      </c>
-      <c r="E5">
-        <v>-8.2799999999999994</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.1E-16</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>-0.18100754129999999</v>
-      </c>
-      <c r="C6">
-        <v>0.83442910000000003</v>
-      </c>
-      <c r="D6">
-        <v>2.7859234600000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>-6.5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8.2000000000000001E-11</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>-2.3280275E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.97698859999999998</v>
-      </c>
-      <c r="D7">
-        <v>2.9926853600000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>-0.78</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>4.9894195299999999E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.0511599</v>
-      </c>
-      <c r="D8">
-        <v>3.0609902200000001E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.63</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>-5.13529026E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.94994339999999999</v>
-      </c>
-      <c r="D9">
-        <v>5.4359438699999998E-2</v>
-      </c>
-      <c r="E9">
-        <v>-0.94</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.34</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>-4.3591934000000001E-3</v>
-      </c>
-      <c r="C10">
-        <v>0.99565029999999999</v>
-      </c>
-      <c r="D10">
-        <v>1.3156521799999999E-2</v>
-      </c>
-      <c r="E10">
-        <v>-0.33</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>1.1604148E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.0116717</v>
-      </c>
-      <c r="D11">
-        <v>3.781735E-3</v>
-      </c>
-      <c r="E11">
-        <v>3.07</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>8.6943779400000004E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.0908354</v>
-      </c>
-      <c r="D12">
-        <v>2.82560257E-2</v>
-      </c>
-      <c r="E12">
-        <v>3.08</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.203541635</v>
-      </c>
-      <c r="C13">
-        <v>1.2257362000000001</v>
-      </c>
-      <c r="D13">
-        <v>3.1077024000000002E-2</v>
-      </c>
-      <c r="E13">
-        <v>6.55</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5.8E-11</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>0.1150942772</v>
-      </c>
-      <c r="C14">
-        <v>1.1219792</v>
-      </c>
-      <c r="D14">
-        <v>4.6145682299999997E-2</v>
-      </c>
-      <c r="E14">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>5.4027637000000003E-3</v>
-      </c>
-      <c r="C15">
-        <v>1.0054174</v>
-      </c>
-      <c r="D15">
-        <v>7.2122528300000002E-2</v>
-      </c>
-      <c r="E15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>4.4631543000000001E-3</v>
-      </c>
-      <c r="C16">
-        <v>1.0044731</v>
-      </c>
-      <c r="D16">
-        <v>4.6985339999999998E-4</v>
-      </c>
-      <c r="E16">
-        <v>9.5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>-1.2716689E-3</v>
-      </c>
-      <c r="C17">
-        <v>0.99872910000000004</v>
-      </c>
-      <c r="D17">
-        <v>1.8472430000000001E-4</v>
-      </c>
-      <c r="E17">
-        <v>-6.88</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5.8000000000000003E-12</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>2.8931939999999999E-4</v>
-      </c>
-      <c r="C18">
-        <v>1.0002894</v>
-      </c>
-      <c r="D18">
-        <v>1.077726E-4</v>
-      </c>
-      <c r="E18">
-        <v>2.68</v>
-      </c>
-      <c r="F18" s="4">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>-8.6424537999999999E-3</v>
-      </c>
-      <c r="C19">
-        <v>0.99139480000000002</v>
-      </c>
-      <c r="D19">
-        <v>2.0738567499999999E-2</v>
-      </c>
-      <c r="E19">
-        <v>-0.42</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20">
-        <v>2.6274529E-3</v>
-      </c>
-      <c r="C20">
-        <v>1.0026309</v>
-      </c>
-      <c r="D20">
-        <v>3.1276802499999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.08</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>-9.9017476100000001E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.9057269</v>
-      </c>
-      <c r="D21">
-        <v>3.2389123499999999E-2</v>
-      </c>
-      <c r="E21">
-        <v>-3.06</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22">
-        <v>-0.2208620697</v>
-      </c>
-      <c r="C22">
-        <v>0.80182730000000002</v>
-      </c>
-      <c r="D22">
-        <v>3.5626981600000003E-2</v>
-      </c>
-      <c r="E22">
-        <v>-6.2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5.7E-10</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>-8.8831403700000006E-2</v>
-      </c>
-      <c r="C23">
-        <v>0.91499980000000003</v>
-      </c>
-      <c r="D23">
-        <v>2.9522010000000001E-2</v>
-      </c>
-      <c r="E23">
-        <v>-3.01</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>**</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>-7.4008444000000007E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.92866389999999999</v>
-      </c>
-      <c r="D24">
-        <v>6.5701018999999999E-3</v>
-      </c>
-      <c r="E24">
-        <v>-11.26</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <v>-5.9096953799999997E-2</v>
-      </c>
-      <c r="C25">
-        <v>0.94261539999999999</v>
-      </c>
-      <c r="D25">
-        <v>4.7113939000000002E-3</v>
-      </c>
-      <c r="E25">
-        <v>-12.54</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26">
-        <v>-0.47735655999999999</v>
-      </c>
-      <c r="C26">
-        <v>0.62042129999999995</v>
-      </c>
-      <c r="D26">
-        <v>0.10100679059999999</v>
-      </c>
-      <c r="E26">
-        <v>-4.7300000000000004</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2.3E-6</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <v>-0.41717223850000001</v>
-      </c>
-      <c r="C27">
-        <v>0.65890740000000003</v>
-      </c>
-      <c r="D27">
-        <v>5.4464341899999998E-2</v>
-      </c>
-      <c r="E27">
-        <v>-7.66</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1.9000000000000001E-14</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28">
-        <v>-4.2997046999999997E-2</v>
-      </c>
-      <c r="C28">
-        <v>0.95791420000000005</v>
-      </c>
-      <c r="D28">
-        <v>0.2733923781</v>
-      </c>
-      <c r="E28">
-        <v>-0.16</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29">
-        <v>-0.34318446380000001</v>
-      </c>
-      <c r="C29">
-        <v>0.70950729999999995</v>
-      </c>
-      <c r="D29">
-        <v>5.3263277499999997E-2</v>
-      </c>
-      <c r="E29">
-        <v>-6.44</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1.2E-10</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>***</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>0.38518619999999998</v>
-      </c>
-      <c r="E33">
-        <v>0.14836840000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Analysis/Paper/Tables.xlsx
+++ b/Analysis/Paper/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7995AA-6B39-44EA-AB85-01AACB3361B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F12963-124F-4C4F-9B7B-B9CF799D3123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="12" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
+    <workbookView xWindow="11415" yWindow="5520" windowWidth="13785" windowHeight="9360" firstSheet="10" activeTab="13" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="mod1" sheetId="2" r:id="rId1"/>
@@ -621,18 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -651,6 +639,18 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,7 +970,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" activeCellId="1" sqref="B2:B3 D2:D3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF5D928-7B16-48E5-9106-CF382A052326}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3256,7 +3256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5971996-C493-4E34-8CB5-DA105C8BC0EA}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BF295-AB2E-413A-A9E0-35598F6A239C}">
   <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,7 +4954,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="str">
@@ -4975,7 +4975,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="str">
@@ -4999,7 +4999,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="str">
@@ -5020,7 +5020,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -5045,7 +5045,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="8" t="str">
@@ -5066,7 +5066,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A7,0),4),")")</f>
         <v>(0.0167)</v>
@@ -5089,7 +5089,7 @@
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="8" t="str">
@@ -5110,7 +5110,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A9,0),4),")")</f>
         <v>(0.0037)</v>
@@ -5133,7 +5133,7 @@
         <f>A9+1</f>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="8" t="str">
@@ -5154,7 +5154,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A11,0),4),")")</f>
         <v>(0.0211)</v>
@@ -5177,7 +5177,7 @@
         <f>A11+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="8" t="str">
@@ -5198,7 +5198,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A13,0),4),")")</f>
         <v>(0.0231)</v>
@@ -5221,7 +5221,7 @@
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="8" t="str">
@@ -5242,7 +5242,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A15,0),4),")")</f>
         <v>(0.0259)</v>
@@ -5265,7 +5265,7 @@
         <f>A15+1</f>
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C17" s="8" t="str">
@@ -5286,7 +5286,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A17,0),4),")")</f>
         <v>(0.0456)</v>
@@ -5309,7 +5309,7 @@
         <f>A17+1</f>
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="8" t="str">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A19,0),4),")")</f>
         <v>(0.0112)</v>
@@ -5353,7 +5353,7 @@
         <f>A19+1</f>
         <v>9</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="8" t="str">
@@ -5374,7 +5374,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A21,0),4),")")</f>
         <v>(0.0033)</v>
@@ -5397,7 +5397,7 @@
         <f>A21+1</f>
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C23" s="8" t="str">
@@ -5418,7 +5418,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A23,0),4),")")</f>
         <v>(0.0228)</v>
@@ -5441,7 +5441,7 @@
         <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C25" s="8" t="str">
@@ -5462,7 +5462,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A25,0),4),")")</f>
         <v>(0.0248)</v>
@@ -5485,7 +5485,7 @@
         <f>A25+1</f>
         <v>12</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="8" t="str">
@@ -5506,7 +5506,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A27,0),4),")")</f>
         <v>(0.0383)</v>
@@ -5529,7 +5529,7 @@
         <f>A27+1</f>
         <v>13</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="8" t="str">
@@ -5550,7 +5550,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A29,0),4),")")</f>
         <v>(0.0613)</v>
@@ -5573,7 +5573,7 @@
         <f>A29+1</f>
         <v>14</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="8" t="str">
@@ -5594,7 +5594,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A31,0),4),")")</f>
         <v>(0.0004)</v>
@@ -5617,7 +5617,7 @@
         <f>A31+1</f>
         <v>15</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="25" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="8" t="str">
@@ -5638,7 +5638,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A33,0),4),")")</f>
         <v>(0.0002)</v>
@@ -5661,7 +5661,7 @@
         <f>A33+1</f>
         <v>16</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="8" t="str">
@@ -5682,7 +5682,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A35,0),4),")")</f>
         <v>(0.0001)</v>
@@ -5705,7 +5705,7 @@
         <f>A35+1</f>
         <v>17</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="25" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="8" t="str">
@@ -5726,7 +5726,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A37,0),4),")")</f>
         <v>(0.0181)</v>
@@ -5749,7 +5749,7 @@
         <f>A37+1</f>
         <v>18</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="25" t="s">
         <v>107</v>
       </c>
       <c r="C39" s="8" t="str">
@@ -5770,7 +5770,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A39,0),4),")")</f>
         <v>(0.0268)</v>
@@ -5793,7 +5793,7 @@
         <f>A39+1</f>
         <v>19</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="25" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="8" t="str">
@@ -5814,7 +5814,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A41,0),4),")")</f>
         <v>(0.0251)</v>
@@ -5837,7 +5837,7 @@
         <f>A41+1</f>
         <v>20</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="25" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="8" t="str">
@@ -5858,7 +5858,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A43,0),4),")")</f>
         <v>(0.0274)</v>
@@ -5881,7 +5881,7 @@
         <f>A43+1</f>
         <v>21</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="25" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="8" t="str">
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod2'!$D$2,Table3!A45,0),4),")")</f>
         <v>(0.0227)</v>
@@ -5925,7 +5925,7 @@
         <f>A45+1</f>
         <v>22</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="25" t="s">
         <v>111</v>
       </c>
       <c r="C47" s="8"/>
@@ -5940,7 +5940,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="9"/>
       <c r="D48" s="7"/>
       <c r="E48" s="9" t="str">
@@ -5957,7 +5957,7 @@
         <f>A47+1</f>
         <v>23</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="25" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="8"/>
@@ -5972,7 +5972,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="9"/>
       <c r="D50" s="7"/>
       <c r="E50" s="9" t="str">
@@ -5989,7 +5989,7 @@
         <f>A49+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C51" s="8"/>
@@ -6004,7 +6004,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="9" t="str">
@@ -6021,7 +6021,7 @@
         <f>A51+1</f>
         <v>25</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="25" t="s">
         <v>114</v>
       </c>
       <c r="C53" s="8"/>
@@ -6036,7 +6036,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
       <c r="E54" s="9" t="str">
@@ -6053,7 +6053,7 @@
         <f>A53+1</f>
         <v>26</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="25" t="s">
         <v>115</v>
       </c>
       <c r="C55" s="8"/>
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
       <c r="E56" s="9" t="str">
@@ -6085,7 +6085,7 @@
         <f>A55+1</f>
         <v>27</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="8"/>
@@ -6100,7 +6100,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="9" t="str">
@@ -6117,7 +6117,7 @@
         <f>A57+1</f>
         <v>28</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C59" s="8"/>
@@ -6129,7 +6129,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="9"/>
       <c r="D60" s="7"/>
       <c r="E60" s="9"/>
@@ -6196,6 +6196,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -6208,23 +6225,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6234,7 +6234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F8F94-28F1-435A-A302-0413B10E8D9E}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -13051,17 +13051,17 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="str">
@@ -13082,7 +13082,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mof4.fr_female'!D2,4),")")</f>
         <v>(0.0342)</v>
@@ -13104,7 +13104,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="str">
@@ -13125,7 +13125,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -13150,7 +13150,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="8" t="str">
@@ -13171,7 +13171,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A7,0),4),")")</f>
         <v>(0.0071)</v>
@@ -13194,7 +13194,7 @@
         <f>A7+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="8" t="str">
@@ -13215,7 +13215,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A9,0),4),")")</f>
         <v>(0.0401)</v>
@@ -13238,7 +13238,7 @@
         <f>A9+1</f>
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
         <v>122</v>
       </c>
       <c r="C11" s="8"/>
@@ -13253,7 +13253,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9"/>
       <c r="D12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A11,0),4),")")</f>
@@ -13270,7 +13270,7 @@
         <f>A11+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="8"/>
@@ -13285,7 +13285,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A13,0),4),")")</f>
@@ -13302,7 +13302,7 @@
         <f>A13+1</f>
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="8" t="str">
@@ -13323,7 +13323,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A15,0),4),")")</f>
         <v>(0.0434)</v>
@@ -13346,7 +13346,7 @@
         <f>A15+1</f>
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
         <v>124</v>
       </c>
       <c r="C17" s="8"/>
@@ -13361,7 +13361,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="9"/>
       <c r="D18" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A17,0),4),")")</f>
@@ -13377,7 +13377,7 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="25" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="8"/>
@@ -13392,7 +13392,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9"/>
       <c r="D20" s="7" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mod.fr.int_female'!$D$2,'Table 4'!A19,0),4),")")</f>
@@ -13408,7 +13408,7 @@
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C21" s="8" t="str">
@@ -13429,7 +13429,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A21,0),4),")")</f>
         <v>(0.0405)</v>
@@ -13452,7 +13452,7 @@
         <f>A21+1</f>
         <v>10</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="25" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="8" t="str">
@@ -13473,7 +13473,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A23,0),4),")")</f>
         <v>(0.0698)</v>
@@ -13496,7 +13496,7 @@
         <f>A23+1</f>
         <v>11</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="8" t="str">
@@ -13517,7 +13517,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A25,0),4),")")</f>
         <v>(0.0171)</v>
@@ -13540,7 +13540,7 @@
         <f>A25+1</f>
         <v>12</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="8" t="str">
@@ -13561,7 +13561,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A27,0),4),")")</f>
         <v>(0.0059)</v>
@@ -13584,7 +13584,7 @@
         <f>A27+1</f>
         <v>13</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="8" t="str">
@@ -13605,7 +13605,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A29,0),4),")")</f>
         <v>(0.0424)</v>
@@ -13628,7 +13628,7 @@
         <f>A29+1</f>
         <v>14</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C31" s="8" t="str">
@@ -13649,7 +13649,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A31,0),4),")")</f>
         <v>(0.0447)</v>
@@ -13672,7 +13672,7 @@
         <f>A31+1</f>
         <v>15</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="25" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="8" t="str">
@@ -13693,7 +13693,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A33,0),4),")")</f>
         <v>(0.0654)</v>
@@ -13716,7 +13716,7 @@
         <f>A33+1</f>
         <v>16</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="8" t="str">
@@ -13737,7 +13737,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A35,0),4),")")</f>
         <v>(0.0989)</v>
@@ -13760,7 +13760,7 @@
         <f>A35+1</f>
         <v>17</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="8" t="str">
@@ -13781,7 +13781,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A37,0),4),")")</f>
         <v>(0.0007)</v>
@@ -13804,7 +13804,7 @@
         <f>A37+1</f>
         <v>18</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="25" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="8" t="str">
@@ -13825,7 +13825,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A39,0),4),")")</f>
         <v>(0.0003)</v>
@@ -13848,7 +13848,7 @@
         <f>A39+1</f>
         <v>19</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="25" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="8" t="str">
@@ -13869,7 +13869,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A41,0),4),")")</f>
         <v>(0.0002)</v>
@@ -13892,7 +13892,7 @@
         <f>A41+1</f>
         <v>20</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="25" t="s">
         <v>106</v>
       </c>
       <c r="C43" s="8" t="str">
@@ -13913,7 +13913,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A43,0),4),")")</f>
         <v>(0.0292)</v>
@@ -13936,7 +13936,7 @@
         <f>A43+1</f>
         <v>21</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="25" t="s">
         <v>107</v>
       </c>
       <c r="C45" s="8" t="str">
@@ -13957,7 +13957,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A45,0),4),")")</f>
         <v>(0.043)</v>
@@ -13980,7 +13980,7 @@
         <f>A45+1</f>
         <v>22</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="25" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="8" t="str">
@@ -14001,7 +14001,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A47,0),4),")")</f>
         <v>(0.0476)</v>
@@ -14024,7 +14024,7 @@
         <f>A47+1</f>
         <v>23</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="25" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="8" t="str">
@@ -14045,7 +14045,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A49,0),4),")")</f>
         <v>(0.0521)</v>
@@ -14068,7 +14068,7 @@
         <f>A49+1</f>
         <v>24</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="25" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="8" t="str">
@@ -14089,7 +14089,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A51,0),4),")")</f>
         <v>(0.0426)</v>
@@ -14112,7 +14112,7 @@
         <f>A51+1</f>
         <v>25</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="25" t="s">
         <v>111</v>
       </c>
       <c r="C53" s="8" t="str">
@@ -14133,7 +14133,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A53,0),4),")")</f>
         <v>(0.0096)</v>
@@ -14156,7 +14156,7 @@
         <f>A53+1</f>
         <v>26</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="25" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="8" t="str">
@@ -14177,7 +14177,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A55,0),4),")")</f>
         <v>(0.0069)</v>
@@ -14200,7 +14200,7 @@
         <f>A55+1</f>
         <v>27</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C57" s="8" t="str">
@@ -14221,7 +14221,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A57,0),4),")")</f>
         <v>(0.1478)</v>
@@ -14244,7 +14244,7 @@
         <f>A57+1</f>
         <v>28</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="25" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="8" t="str">
@@ -14265,7 +14265,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A59,0),4),")")</f>
         <v>(0.0945)</v>
@@ -14288,7 +14288,7 @@
         <f>A59+1</f>
         <v>29</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="25" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="8" t="str">
@@ -14309,7 +14309,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A61,0),4),")")</f>
         <v>(0.3999)</v>
@@ -14332,7 +14332,7 @@
         <f>A61+1</f>
         <v>30</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="8" t="str">
@@ -14353,7 +14353,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A63,0),4),")")</f>
         <v>(0.0855)</v>
@@ -14376,7 +14376,7 @@
         <f>A63+1</f>
         <v>31</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="8" t="str">
@@ -14397,7 +14397,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="9" t="str">
         <f ca="1">_xlfn.CONCAT("(",ROUND(OFFSET('mof4.fr_female'!$D$2,'Table 4'!$A65,0),4),")")</f>
         <v>(0.112)</v>
@@ -14472,6 +14472,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14484,28 +14506,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14779,7 +14779,7 @@
       <c r="E2">
         <v>-7.85</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>4.1999999999999996E-15</v>
       </c>
       <c r="G2" t="str">
@@ -14803,7 +14803,7 @@
       <c r="E3">
         <v>-11.54</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>0</v>
       </c>
       <c r="G3" t="str">
@@ -14812,7 +14812,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -14916,7 +14916,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="str">
@@ -14937,7 +14937,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="str">
@@ -14958,7 +14958,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="str">
@@ -14979,7 +14979,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="str">
         <f>_xlfn.CONCAT("(",ROUND('mod1'!D3,4),")")</f>
         <v>(0.0194)</v>
@@ -15016,16 +15016,16 @@
       <c r="A8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>16210</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>15800</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>16210</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>15800</v>
       </c>
     </row>
@@ -15033,16 +15033,16 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <v>281732</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>273790.5</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="21">
         <v>280616.7</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>272736</v>
       </c>
     </row>
@@ -15050,16 +15050,16 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="21">
         <v>281747.40000000002</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>273805.8</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="21">
         <v>293503.59999999998</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>285107.3</v>
       </c>
     </row>
@@ -15067,29 +15067,29 @@
       <c r="A11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="21">
         <v>-140864</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>-136893.20000000001</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="21">
         <v>-138633.29999999999</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>-134754.6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24">
         <v>2.5160719999999998E-106</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="24">
         <v>2.7727630000000001E-101</v>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(F16&lt;0.001,"***",IF(F16&lt;0.01,"**",IF(F16&lt;0.05,"*",IF(F16&lt;0.1,"^",""))))</f>
+        <f t="shared" ref="G16:G23" si="1">IF(F16&lt;0.001,"***",IF(F16&lt;0.01,"**",IF(F16&lt;0.05,"*",IF(F16&lt;0.1,"^",""))))</f>
         <v>***</v>
       </c>
       <c r="J16" t="s">
@@ -16668,7 +16668,7 @@
         <v>1.8999999999999999E-11</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(F17&lt;0.001,"***",IF(F17&lt;0.01,"**",IF(F17&lt;0.05,"*",IF(F17&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v>***</v>
       </c>
       <c r="J17" t="s">
@@ -16695,7 +16695,7 @@
         <v>0.17</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(F18&lt;0.001,"***",IF(F18&lt;0.01,"**",IF(F18&lt;0.05,"*",IF(F18&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J18" t="s">
@@ -16722,7 +16722,7 @@
         <v>0.54</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(F19&lt;0.001,"***",IF(F19&lt;0.01,"**",IF(F19&lt;0.05,"*",IF(F19&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J19" t="s">
@@ -16749,7 +16749,7 @@
         <v>0.64</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(F20&lt;0.001,"***",IF(F20&lt;0.01,"**",IF(F20&lt;0.05,"*",IF(F20&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J20" t="s">
@@ -16776,7 +16776,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(F21&lt;0.001,"***",IF(F21&lt;0.01,"**",IF(F21&lt;0.05,"*",IF(F21&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v>^</v>
       </c>
       <c r="J21" t="s">
@@ -16803,7 +16803,7 @@
         <v>1.5E-5</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(F22&lt;0.001,"***",IF(F22&lt;0.01,"**",IF(F22&lt;0.05,"*",IF(F22&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v>***</v>
       </c>
       <c r="J22" t="s">
@@ -16830,7 +16830,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(F23&lt;0.001,"***",IF(F23&lt;0.01,"**",IF(F23&lt;0.05,"*",IF(F23&lt;0.1,"^",""))))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J23" t="s">

--- a/Analysis/Paper/Tables.xlsx
+++ b/Analysis/Paper/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F12963-124F-4C4F-9B7B-B9CF799D3123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3916053-5906-4A4C-B15C-8D088669CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="5520" windowWidth="13785" windowHeight="9360" firstSheet="10" activeTab="13" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="12" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
   </bookViews>
   <sheets>
     <sheet name="mod1" sheetId="2" r:id="rId1"/>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BF295-AB2E-413A-A9E0-35598F6A239C}">
   <dimension ref="A2:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,8 +5007,8 @@
         <v>-0.1049 ***</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A5,0))</f>
-        <v>-0.1049 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A5,0))</f>
+        <v>-0.1266 ***</v>
       </c>
       <c r="E5" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A5,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A5,0))</f>
@@ -5053,8 +5053,8 @@
         <v>0.0541 **</v>
       </c>
       <c r="D7" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A7,0))</f>
-        <v>0.0541 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A7,0))</f>
+        <v>0.0748 ***</v>
       </c>
       <c r="E7" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A7,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A7,0))</f>
@@ -5097,8 +5097,8 @@
         <v>-0.0672 ***</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A9,0))</f>
-        <v>-0.0672 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A9,0))</f>
+        <v>-0.0661 ***</v>
       </c>
       <c r="E9" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A9,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A9,0))</f>
@@ -5141,8 +5141,8 @@
         <v>-0.1577 ***</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A11,0))</f>
-        <v>-0.1577 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A11,0))</f>
+        <v>-0.2035 ***</v>
       </c>
       <c r="E11" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A11,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A11,0))</f>
@@ -5185,8 +5185,8 @@
         <v xml:space="preserve">-0.0128 </v>
       </c>
       <c r="D13" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A13,0))</f>
-        <v xml:space="preserve">-0.0128 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A13,0))</f>
+        <v xml:space="preserve">-0.0175 </v>
       </c>
       <c r="E13" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A13,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A13,0))</f>
@@ -5229,8 +5229,8 @@
         <v>0.0563 *</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A15,0))</f>
-        <v>0.0563 ^</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A15,0))</f>
+        <v>0.0594 ^</v>
       </c>
       <c r="E15" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A15,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A15,0))</f>
@@ -5273,8 +5273,8 @@
         <v xml:space="preserve">-0.0548 </v>
       </c>
       <c r="D17" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A17,0))</f>
-        <v xml:space="preserve">-0.0548 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A17,0))</f>
+        <v xml:space="preserve">-0.082 </v>
       </c>
       <c r="E17" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A17,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A17,0))</f>
@@ -5317,8 +5317,8 @@
         <v xml:space="preserve">-0.0025 </v>
       </c>
       <c r="D19" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A19,0))</f>
-        <v xml:space="preserve">-0.0025 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A19,0))</f>
+        <v xml:space="preserve">-0.0001 </v>
       </c>
       <c r="E19" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A19,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A19,0))</f>
@@ -5361,8 +5361,8 @@
         <v>0.0094 **</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A21,0))</f>
-        <v>0.0094 **</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A21,0))</f>
+        <v>0.0107 **</v>
       </c>
       <c r="E21" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A21,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A21,0))</f>
@@ -5405,8 +5405,8 @@
         <v>0.0669 **</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A23,0))</f>
-        <v>0.0669 **</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A23,0))</f>
+        <v>0.0889 **</v>
       </c>
       <c r="E23" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A23,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A23,0))</f>
@@ -5449,8 +5449,8 @@
         <v>0.1701 ***</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A25,0))</f>
-        <v>0.1701 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A25,0))</f>
+        <v>0.2007 ***</v>
       </c>
       <c r="E25" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A25,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A25,0))</f>
@@ -5493,8 +5493,8 @@
         <v>0.1136 **</v>
       </c>
       <c r="D27" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A27,0))</f>
-        <v>0.1136 *</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A27,0))</f>
+        <v>0.114 *</v>
       </c>
       <c r="E27" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A27,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A27,0))</f>
@@ -5537,8 +5537,8 @@
         <v xml:space="preserve">0.0137 </v>
       </c>
       <c r="D29" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A29,0))</f>
-        <v xml:space="preserve">0.0137 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A29,0))</f>
+        <v xml:space="preserve">-0.0046 </v>
       </c>
       <c r="E29" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A29,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A29,0))</f>
@@ -5581,8 +5581,8 @@
         <v>0.0036 ***</v>
       </c>
       <c r="D31" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A31,0))</f>
-        <v>0.0036 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A31,0))</f>
+        <v>0.0043 ***</v>
       </c>
       <c r="E31" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A31,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A31,0))</f>
@@ -5625,7 +5625,7 @@
         <v>-0.0012 ***</v>
       </c>
       <c r="D33" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A33,0))</f>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A33,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A33,0))</f>
         <v>-0.0012 ***</v>
       </c>
       <c r="E33" s="8" t="str">
@@ -5669,8 +5669,8 @@
         <v>0.0004 ***</v>
       </c>
       <c r="D35" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A35,0))</f>
-        <v xml:space="preserve">0.0004 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A35,0))</f>
+        <v xml:space="preserve">0.0001 </v>
       </c>
       <c r="E35" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A35,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A35,0))</f>
@@ -5713,8 +5713,8 @@
         <v xml:space="preserve">-0.0256 </v>
       </c>
       <c r="D37" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A37,0))</f>
-        <v xml:space="preserve">-0.0256 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A37,0))</f>
+        <v xml:space="preserve">-0.0156 </v>
       </c>
       <c r="E37" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A37,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A37,0))</f>
@@ -5757,8 +5757,8 @@
         <v xml:space="preserve">-0.0334 </v>
       </c>
       <c r="D39" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A39,0))</f>
-        <v xml:space="preserve">-0.0334 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A39,0))</f>
+        <v xml:space="preserve">-0.0086 </v>
       </c>
       <c r="E39" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A39,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A39,0))</f>
@@ -5801,8 +5801,8 @@
         <v>-0.0604 *</v>
       </c>
       <c r="D41" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A41,0))</f>
-        <v>-0.0604 ^</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A41,0))</f>
+        <v>-0.0591 ^</v>
       </c>
       <c r="E41" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A41,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A41,0))</f>
@@ -5845,8 +5845,8 @@
         <v>-0.1224 ***</v>
       </c>
       <c r="D43" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A43,0))</f>
-        <v>-0.1224 ***</v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A43,0))</f>
+        <v>-0.1475 ***</v>
       </c>
       <c r="E43" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A43,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A43,0))</f>
@@ -5889,8 +5889,8 @@
         <v xml:space="preserve">-0.0254 </v>
       </c>
       <c r="D45" s="6" t="str">
-        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A45,0))</f>
-        <v xml:space="preserve">-0.0254 </v>
+        <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod2.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod2.fr'!$G$2,Table3!A45,0))</f>
+        <v xml:space="preserve">-0.0341 </v>
       </c>
       <c r="E45" s="8" t="str">
         <f ca="1">_xlfn.CONCAT(ROUND(OFFSET('mod3.fr'!$B$2,Table3!A45,0),4)," ",OFFSET('mod3.fr'!$G$2,Table3!A45,0))</f>
@@ -6196,11 +6196,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -6213,18 +6220,11 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6234,7 +6234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954F8F94-28F1-435A-A302-0413B10E8D9E}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -14472,16 +14472,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
@@ -14494,18 +14496,16 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14890,7 +14890,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A3" sqref="A3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/Paper/Tables.xlsx
+++ b/Analysis/Paper/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ta0jrg1\Documents\Projects\Obesity_Redo\Analysis\Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D7DF06-C0E3-4ED3-911C-9336288E476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA9E5A-B318-4F9F-9804-1CFF775C1BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="9" activeTab="17" xr2:uid="{2117FDC6-2EA3-4270-B58E-054E1375CB25}"/>
   </bookViews>
@@ -8480,8 +8480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BF295-AB2E-413A-A9E0-35598F6A239C}">
   <dimension ref="A2:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22035,8 +22035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D30258-0279-42C9-AFDD-19DB817A80C5}">
   <dimension ref="A2:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
